--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_748.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_748.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29092-d75532-Reviews-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>126</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-The-Anaheim-Hotel.h28457.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_748.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_748.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="487">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1419 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r593812515-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>29092</t>
+  </si>
+  <si>
+    <t>75532</t>
+  </si>
+  <si>
+    <t>593812515</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>Two king beds were a hit</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 2 nights and chose it for it's proximity to Disneyland.  It was a surprise to see that they offered rooms with two king beds.  As a family with 2 older children, this worked out great to have the extra space.
+Our room was in a 400 building near the back.  There was no noise except for the occasional excited child running down the corridor outside the room.  Typical vacation area noise and not unexpected.  The room itself was just ok.  Other than the two kings, it was nothing special.  It seemed dated so maybe we didn't get one of the updated rooms that others mentioned.  Walls are also thin and even though we were on the 2nd floor we could hear our neighbors child running around in his room early in the morning.  Bring ear plugs.
+We only had one issue that needed staff attention on our 2nd day.  Even though we used 4 towels for showers, we only had 2 bath towels replenished in our room and no extra shampoo/conditioner/soap.  This was corrected by a visit to the front desk on our way out for the evening.
+The staff at this hotel was very pleasant and helpful.  Check-in was easy and as I mentioned, they dealt with our minor issue quickly.
+We ate breakfast at the Pizza Press (yes, breakfast).  It was very good and the staff there was great too.  We'd love...We stayed at this hotel for 2 nights and chose it for it's proximity to Disneyland.  It was a surprise to see that they offered rooms with two king beds.  As a family with 2 older children, this worked out great to have the extra space.Our room was in a 400 building near the back.  There was no noise except for the occasional excited child running down the corridor outside the room.  Typical vacation area noise and not unexpected.  The room itself was just ok.  Other than the two kings, it was nothing special.  It seemed dated so maybe we didn't get one of the updated rooms that others mentioned.  Walls are also thin and even though we were on the 2nd floor we could hear our neighbors child running around in his room early in the morning.  Bring ear plugs.We only had one issue that needed staff attention on our 2nd day.  Even though we used 4 towels for showers, we only had 2 bath towels replenished in our room and no extra shampoo/conditioner/soap.  This was corrected by a visit to the front desk on our way out for the evening.The staff at this hotel was very pleasant and helpful.  Check-in was easy and as I mentioned, they dealt with our minor issue quickly.We ate breakfast at the Pizza Press (yes, breakfast).  It was very good and the staff there was great too.  We'd love to go back and try the pizza sometime.Overall, we loved the location and easy access to Disneyland and the two king beds.  It was perfect for our Disneyland visit as we really only needed a place to clean up and sleep.  I'd definitely consider this location again on our next visit to Disneyland.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 2 nights and chose it for it's proximity to Disneyland.  It was a surprise to see that they offered rooms with two king beds.  As a family with 2 older children, this worked out great to have the extra space.
+Our room was in a 400 building near the back.  There was no noise except for the occasional excited child running down the corridor outside the room.  Typical vacation area noise and not unexpected.  The room itself was just ok.  Other than the two kings, it was nothing special.  It seemed dated so maybe we didn't get one of the updated rooms that others mentioned.  Walls are also thin and even though we were on the 2nd floor we could hear our neighbors child running around in his room early in the morning.  Bring ear plugs.
+We only had one issue that needed staff attention on our 2nd day.  Even though we used 4 towels for showers, we only had 2 bath towels replenished in our room and no extra shampoo/conditioner/soap.  This was corrected by a visit to the front desk on our way out for the evening.
+The staff at this hotel was very pleasant and helpful.  Check-in was easy and as I mentioned, they dealt with our minor issue quickly.
+We ate breakfast at the Pizza Press (yes, breakfast).  It was very good and the staff there was great too.  We'd love...We stayed at this hotel for 2 nights and chose it for it's proximity to Disneyland.  It was a surprise to see that they offered rooms with two king beds.  As a family with 2 older children, this worked out great to have the extra space.Our room was in a 400 building near the back.  There was no noise except for the occasional excited child running down the corridor outside the room.  Typical vacation area noise and not unexpected.  The room itself was just ok.  Other than the two kings, it was nothing special.  It seemed dated so maybe we didn't get one of the updated rooms that others mentioned.  Walls are also thin and even though we were on the 2nd floor we could hear our neighbors child running around in his room early in the morning.  Bring ear plugs.We only had one issue that needed staff attention on our 2nd day.  Even though we used 4 towels for showers, we only had 2 bath towels replenished in our room and no extra shampoo/conditioner/soap.  This was corrected by a visit to the front desk on our way out for the evening.The staff at this hotel was very pleasant and helpful.  Check-in was easy and as I mentioned, they dealt with our minor issue quickly.We ate breakfast at the Pizza Press (yes, breakfast).  It was very good and the staff there was great too.  We'd love to go back and try the pizza sometime.Overall, we loved the location and easy access to Disneyland and the two king beds.  It was perfect for our Disneyland visit as we really only needed a place to clean up and sleep.  I'd definitely consider this location again on our next visit to Disneyland.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r593797537-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>593797537</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have season passes to Disneyland and stay at this hotel every time I visit. Very clean very friendly staff and across the street from Disneyland. Beds are comfortable and the rooms are spacious. Highly recommend this hotel. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r593666215-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>593666215</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>So close to Disneyland you can smell the fun</t>
+  </si>
+  <si>
+    <t>This is a great clean hotel across the road from Disneyland plenty of parking and free wifi a bar and restaurant, large pool and jacuzziBecause most of the rooms are set back from the road this is ideal if you want quietThe staff are very  helpful</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r591766784-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>591766784</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>I watched this hotel goes through its renovations throughout other trips and decided to stay here this trip as it was done, the Pizza Press being close (my favorite place to eat off Disneyland property) and it's location to the park.  It was also cheaper than my usual hotel, as well as offering a better AP discount than that hotel.
+It was a good stay.  I arrived early and didn't expect my room to be ready, and they initially said it wasn't.  But offered my a single king sized room that was ready, which was fine as I was alone.  The lobby is very nice, feels very much like a proper hotel rather than a motel.  A staff member greets you whenever you walk by, which is nice.  The grounds are lovely and the vibe from lobby carries on to out there.  My room was the on the second floor in one of the back buildings, the ones without a balcony or patio, which was fine by me but something I'd like to experience.  I was very thankful they had a ramp, which I discovered after lugging my bags up the stairs.
+The room felt large, but it could be because of the single bed in the center, but it was also a king so not a small bed.  It was clean and looked fine.  The layout of the room was a bit odd, with the sink and mirror being...I watched this hotel goes through its renovations throughout other trips and decided to stay here this trip as it was done, the Pizza Press being close (my favorite place to eat off Disneyland property) and it's location to the park.  It was also cheaper than my usual hotel, as well as offering a better AP discount than that hotel.It was a good stay.  I arrived early and didn't expect my room to be ready, and they initially said it wasn't.  But offered my a single king sized room that was ready, which was fine as I was alone.  The lobby is very nice, feels very much like a proper hotel rather than a motel.  A staff member greets you whenever you walk by, which is nice.  The grounds are lovely and the vibe from lobby carries on to out there.  My room was the on the second floor in one of the back buildings, the ones without a balcony or patio, which was fine by me but something I'd like to experience.  I was very thankful they had a ramp, which I discovered after lugging my bags up the stairs.The room felt large, but it could be because of the single bed in the center, but it was also a king so not a small bed.  It was clean and looked fine.  The layout of the room was a bit odd, with the sink and mirror being in a hallway thing off the door that led to the toilet/shower room.  There was no stereotypical front window, instead it was in the back looking out, which was nice.  Bed was comfortable, pillows were comfortable, sheets were alight, a bit rough.  Towels were okay, nice the first day but all the replacements were rough.  AC worked okay, though at night it seemed to not work as well.  And sometimes when it was on the ceiling would emit heat.  The mini fridge could get loud at certain points.The walls and floor are very thin, I could hear my neighbors conversations and noises fairly clearly.  And while I was on the 2nd floor, I could tell the floor was thin and I was probably bothering the people below me walking around.  It didn't bother me much, but I'm also up early and bed late so most people are asleep when I'm trying to fall asleep.WiFi was fast, even at peak times.  I did have to call the front desk to find out how to access it as they left no instructions anywhere nor did they inform me when I checked in.  Pizza Press gets very busy at dinner time, but apparently you can order some pizzas through the bar in the hotel.  They also do online ordering.  Checkout was super easy, they left my bill by the door and I just left my keys in the room and left.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I watched this hotel goes through its renovations throughout other trips and decided to stay here this trip as it was done, the Pizza Press being close (my favorite place to eat off Disneyland property) and it's location to the park.  It was also cheaper than my usual hotel, as well as offering a better AP discount than that hotel.
+It was a good stay.  I arrived early and didn't expect my room to be ready, and they initially said it wasn't.  But offered my a single king sized room that was ready, which was fine as I was alone.  The lobby is very nice, feels very much like a proper hotel rather than a motel.  A staff member greets you whenever you walk by, which is nice.  The grounds are lovely and the vibe from lobby carries on to out there.  My room was the on the second floor in one of the back buildings, the ones without a balcony or patio, which was fine by me but something I'd like to experience.  I was very thankful they had a ramp, which I discovered after lugging my bags up the stairs.
+The room felt large, but it could be because of the single bed in the center, but it was also a king so not a small bed.  It was clean and looked fine.  The layout of the room was a bit odd, with the sink and mirror being...I watched this hotel goes through its renovations throughout other trips and decided to stay here this trip as it was done, the Pizza Press being close (my favorite place to eat off Disneyland property) and it's location to the park.  It was also cheaper than my usual hotel, as well as offering a better AP discount than that hotel.It was a good stay.  I arrived early and didn't expect my room to be ready, and they initially said it wasn't.  But offered my a single king sized room that was ready, which was fine as I was alone.  The lobby is very nice, feels very much like a proper hotel rather than a motel.  A staff member greets you whenever you walk by, which is nice.  The grounds are lovely and the vibe from lobby carries on to out there.  My room was the on the second floor in one of the back buildings, the ones without a balcony or patio, which was fine by me but something I'd like to experience.  I was very thankful they had a ramp, which I discovered after lugging my bags up the stairs.The room felt large, but it could be because of the single bed in the center, but it was also a king so not a small bed.  It was clean and looked fine.  The layout of the room was a bit odd, with the sink and mirror being in a hallway thing off the door that led to the toilet/shower room.  There was no stereotypical front window, instead it was in the back looking out, which was nice.  Bed was comfortable, pillows were comfortable, sheets were alight, a bit rough.  Towels were okay, nice the first day but all the replacements were rough.  AC worked okay, though at night it seemed to not work as well.  And sometimes when it was on the ceiling would emit heat.  The mini fridge could get loud at certain points.The walls and floor are very thin, I could hear my neighbors conversations and noises fairly clearly.  And while I was on the 2nd floor, I could tell the floor was thin and I was probably bothering the people below me walking around.  It didn't bother me much, but I'm also up early and bed late so most people are asleep when I'm trying to fall asleep.WiFi was fast, even at peak times.  I did have to call the front desk to find out how to access it as they left no instructions anywhere nor did they inform me when I checked in.  Pizza Press gets very busy at dinner time, but apparently you can order some pizzas through the bar in the hotel.  They also do online ordering.  Checkout was super easy, they left my bill by the door and I just left my keys in the room and left.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r591753570-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>591753570</t>
+  </si>
+  <si>
+    <t>Upgrade to two King room is same as a rollaway</t>
+  </si>
+  <si>
+    <t>2nd time visitor review/update for May 2018:
+For my 40th birthday in May I chose to stay at this hotel again for 3 nights. I booked a standard room at a good rate directly with hotel website about a month before my stay.  It was supposed to be just me but last minute I decided to bring my kids. When we arrived I asked if we could either get a rollaway or switch to the standard two king room.  Basically they are the same price so we opted for the two king room.  We were also able to check in a bit early than regular check in time, I think it was 2pm.
+We were at the other end of the building I stayed in on my 1st visit. No balance which is fine. This particular room the ac unit was built into the room with a thermostat on the wall and the air vent on the wall too. The ac worked perfectly.
+The room was very spacious for two adults and a teenager to survive for 3 days. The beds wasn't that comfortable but it wasn't so bad either. It was just kinda worn out and ready for replacement.  The bathroom was great and clean.  The room was very clean.  We did not request housekeeping during our stay as I normally do this.  We saw housekeeping in the hallways and they were always pleasant. Actually all the staff were...2nd time visitor review/update for May 2018:For my 40th birthday in May I chose to stay at this hotel again for 3 nights. I booked a standard room at a good rate directly with hotel website about a month before my stay.  It was supposed to be just me but last minute I decided to bring my kids. When we arrived I asked if we could either get a rollaway or switch to the standard two king room.  Basically they are the same price so we opted for the two king room.  We were also able to check in a bit early than regular check in time, I think it was 2pm.We were at the other end of the building I stayed in on my 1st visit. No balance which is fine. This particular room the ac unit was built into the room with a thermostat on the wall and the air vent on the wall too. The ac worked perfectly.The room was very spacious for two adults and a teenager to survive for 3 days. The beds wasn't that comfortable but it wasn't so bad either. It was just kinda worn out and ready for replacement.  The bathroom was great and clean.  The room was very clean.  We did not request housekeeping during our stay as I normally do this.  We saw housekeeping in the hallways and they were always pleasant. Actually all the staff were pleasant and nice.We swam in the pool this trip and it is clean and comfortable temperature.  We also ate once at the Pizza press which is our favorite.The only problem I encountered was the hassle from the people at the little booth in the lobby between the gift shop and registration.  The sign said free breakfast and the gentlemen there called us over twice. At first you don't know what you are getting but basically it is a sales pitch to get you to a timeshare presentation and it has nothing to do with the Anaheim hotel. They must be one of their other hotels. But I can tell you most people don't have time to listen to timeshare stuff during their vacation, especially if they don't know in advance. I did not like this at all!(Apparently after this trip I have earned a reward for a free night. It sounds like it might be tricky to redeem so I will update later this fall if I am able to redeem it.)MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>2nd time visitor review/update for May 2018:
+For my 40th birthday in May I chose to stay at this hotel again for 3 nights. I booked a standard room at a good rate directly with hotel website about a month before my stay.  It was supposed to be just me but last minute I decided to bring my kids. When we arrived I asked if we could either get a rollaway or switch to the standard two king room.  Basically they are the same price so we opted for the two king room.  We were also able to check in a bit early than regular check in time, I think it was 2pm.
+We were at the other end of the building I stayed in on my 1st visit. No balance which is fine. This particular room the ac unit was built into the room with a thermostat on the wall and the air vent on the wall too. The ac worked perfectly.
+The room was very spacious for two adults and a teenager to survive for 3 days. The beds wasn't that comfortable but it wasn't so bad either. It was just kinda worn out and ready for replacement.  The bathroom was great and clean.  The room was very clean.  We did not request housekeeping during our stay as I normally do this.  We saw housekeeping in the hallways and they were always pleasant. Actually all the staff were...2nd time visitor review/update for May 2018:For my 40th birthday in May I chose to stay at this hotel again for 3 nights. I booked a standard room at a good rate directly with hotel website about a month before my stay.  It was supposed to be just me but last minute I decided to bring my kids. When we arrived I asked if we could either get a rollaway or switch to the standard two king room.  Basically they are the same price so we opted for the two king room.  We were also able to check in a bit early than regular check in time, I think it was 2pm.We were at the other end of the building I stayed in on my 1st visit. No balance which is fine. This particular room the ac unit was built into the room with a thermostat on the wall and the air vent on the wall too. The ac worked perfectly.The room was very spacious for two adults and a teenager to survive for 3 days. The beds wasn't that comfortable but it wasn't so bad either. It was just kinda worn out and ready for replacement.  The bathroom was great and clean.  The room was very clean.  We did not request housekeeping during our stay as I normally do this.  We saw housekeeping in the hallways and they were always pleasant. Actually all the staff were pleasant and nice.We swam in the pool this trip and it is clean and comfortable temperature.  We also ate once at the Pizza press which is our favorite.The only problem I encountered was the hassle from the people at the little booth in the lobby between the gift shop and registration.  The sign said free breakfast and the gentlemen there called us over twice. At first you don't know what you are getting but basically it is a sales pitch to get you to a timeshare presentation and it has nothing to do with the Anaheim hotel. They must be one of their other hotels. But I can tell you most people don't have time to listen to timeshare stuff during their vacation, especially if they don't know in advance. I did not like this at all!(Apparently after this trip I have earned a reward for a free night. It sounds like it might be tricky to redeem so I will update later this fall if I am able to redeem it.)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r591369374-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>591369374</t>
+  </si>
+  <si>
+    <t>06/28/2018</t>
+  </si>
+  <si>
+    <t>Friendly and courtesy</t>
+  </si>
+  <si>
+    <t>Great location and time for  another trip here again in August it is the best place to stay we love it here everyone treat's you well and courtesy, kind helpful and always there for you if you need helpMoreShow less</t>
+  </si>
+  <si>
+    <t>AnaheimHotel1700, Manager at The Anaheim Hotel, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Great location and time for  another trip here again in August it is the best place to stay we love it here everyone treat's you well and courtesy, kind helpful and always there for you if you need helpMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r589360967-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>589360967</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t>Disneyland stay</t>
+  </si>
+  <si>
+    <t>The Anaheim hotel was an amazing place to stay. Staff was so friendly, rooms were clean, a very nice vibe. Highly recommend to anyone looking for a decently priced room with a very short walk to the Disneyland resorts!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r589062371-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>589062371</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>After checking in we were helped to our room by a valet named Leo. He was very friendly and helpful and made sure we enjoyed our stay. The location is perfect, almost across the street from Disneyland main entrance. Our room was clean and it was nice to see real ceramic coffee mugs instead of the paper ones I get at most places. WiFi was included in our stay. The tub drain plugged up while we were there, but they had it fixed quickly. Our room was a double queen and a little smaller than I anticipated, but since we were spending most of our time at Disneyland it didn't matter. The view of the fireworks from the balcony was great. We'll definitely be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>After checking in we were helped to our room by a valet named Leo. He was very friendly and helpful and made sure we enjoyed our stay. The location is perfect, almost across the street from Disneyland main entrance. Our room was clean and it was nice to see real ceramic coffee mugs instead of the paper ones I get at most places. WiFi was included in our stay. The tub drain plugged up while we were there, but they had it fixed quickly. Our room was a double queen and a little smaller than I anticipated, but since we were spending most of our time at Disneyland it didn't matter. The view of the fireworks from the balcony was great. We'll definitely be staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r588878335-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>588878335</t>
+  </si>
+  <si>
+    <t>Perfect for what we needed!</t>
+  </si>
+  <si>
+    <t>I stayed here with my two boys ages 14 and 11 for three nights in April. I was looking for a place that wouldn’t break the bank, within walking distance to Disney and had at least one king bed or a combination of beds for all of us. The lobby and grounds were beautiful as was the enormous swimming pool and hot tub. We made use of the pool every afternoon and absolutely loved it. The room, albeit not updated, fit exactly what I was looking for.  It had two king beds, a LARGE vanity area and was clean. The room showed its age but was perfectly acceptable especially for the time we were in it...which really was just to sleep. Pros:The poolRoom sizeClose to Disney Beautiful grounds and lobbyCoffee in roomRefrigerator in roomEconomical Cons:Housekeeping was excellent once they got to our room... which usually wasn’t until 5:00Outdated/broken lamps in roomNever could get the TV to work... but also never asked for helpThe “concierge” in the lobby was a timeshare spiel for a hotel down the street. Which was truly annoying since we had to walk by it numerous times a day No breakfastOverall, I’d 100% stay here again. It is not a 5 star hotel but it works and is affordable. In fact, I got the room for about $105 a night.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>I stayed here with my two boys ages 14 and 11 for three nights in April. I was looking for a place that wouldn’t break the bank, within walking distance to Disney and had at least one king bed or a combination of beds for all of us. The lobby and grounds were beautiful as was the enormous swimming pool and hot tub. We made use of the pool every afternoon and absolutely loved it. The room, albeit not updated, fit exactly what I was looking for.  It had two king beds, a LARGE vanity area and was clean. The room showed its age but was perfectly acceptable especially for the time we were in it...which really was just to sleep. Pros:The poolRoom sizeClose to Disney Beautiful grounds and lobbyCoffee in roomRefrigerator in roomEconomical Cons:Housekeeping was excellent once they got to our room... which usually wasn’t until 5:00Outdated/broken lamps in roomNever could get the TV to work... but also never asked for helpThe “concierge” in the lobby was a timeshare spiel for a hotel down the street. Which was truly annoying since we had to walk by it numerous times a day No breakfastOverall, I’d 100% stay here again. It is not a 5 star hotel but it works and is affordable. In fact, I got the room for about $105 a night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r588507382-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>588507382</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Excellent place to stay!</t>
+  </si>
+  <si>
+    <t>I have been staying here for years and love every minute of it. The staff is so friendly and helpful, the rooms are clean and huge. The pool is amazing. The pizza press connected and the bar are great spots too! The value is incomparable!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r588190088-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>588190088</t>
+  </si>
+  <si>
+    <t>06/17/2018</t>
+  </si>
+  <si>
+    <t>Great location!</t>
+  </si>
+  <si>
+    <t>Pros: Hotel location was flipping amazing literally across the street from Disneyland, 2 blocks from 2 pharmacies, Starbucks, Blaze pizza and many other amenities. Also, if you aren't staying here you can park in their lot for $20 and walk across the street to Disneyland (way better than taking the bus or tram from the Disney parking structures). Pool was large, plenty of seating and privately enclosed.Food ans drinks in the lobby were great! Service was quick. Our room had a large vanity with double sinks and a separate bathroom perfect for 4 friends sharing a room. Room was large! Cons:The rooms were dark and wifi doesn't reach the last few rooms furthest from the lobby had to go outside in the hall to get service.Our room felt dirty (mostly the carpet) even thought it had been "renovated" it didn't feel like it.Lots of noise from the street, hallway and above us (kids running).Despite the cons I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Pros: Hotel location was flipping amazing literally across the street from Disneyland, 2 blocks from 2 pharmacies, Starbucks, Blaze pizza and many other amenities. Also, if you aren't staying here you can park in their lot for $20 and walk across the street to Disneyland (way better than taking the bus or tram from the Disney parking structures). Pool was large, plenty of seating and privately enclosed.Food ans drinks in the lobby were great! Service was quick. Our room had a large vanity with double sinks and a separate bathroom perfect for 4 friends sharing a room. Room was large! Cons:The rooms were dark and wifi doesn't reach the last few rooms furthest from the lobby had to go outside in the hall to get service.Our room felt dirty (mostly the carpet) even thought it had been "renovated" it didn't feel like it.Lots of noise from the street, hallway and above us (kids running).Despite the cons I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r588186616-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>588186616</t>
+  </si>
+  <si>
+    <t>What a wonderful hotel at a great rate!</t>
+  </si>
+  <si>
+    <t>Wonderful hotel at a very reasonable rate  that’s just a short walk to Disneyland.  Rooms were spacious enough for my family of five to not be completely on top of each other. Loved the big pool and jacuzzi and the breakfast at the restaurant was delicious and affordable. But the best thing about this hotel, hands down, is Candy at the Front Desk. She went above and beyond to assist us with an delivery of medical supplies for our son. Even called us after we got home to make sure everything worked out. She made our stay exceptional, and though she definitely stood out, the customer service overall was some of the most personal I’ve seen in a long time.  We will definitely return to this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Wonderful hotel at a very reasonable rate  that’s just a short walk to Disneyland.  Rooms were spacious enough for my family of five to not be completely on top of each other. Loved the big pool and jacuzzi and the breakfast at the restaurant was delicious and affordable. But the best thing about this hotel, hands down, is Candy at the Front Desk. She went above and beyond to assist us with an delivery of medical supplies for our son. Even called us after we got home to make sure everything worked out. She made our stay exceptional, and though she definitely stood out, the customer service overall was some of the most personal I’ve seen in a long time.  We will definitely return to this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r585797078-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>585797078</t>
+  </si>
+  <si>
+    <t>06/07/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lovely hotel </t>
+  </si>
+  <si>
+    <t>We booked this hotel after our airbnb had major issues. We were so glad we did. The hotel is located just a 5 minute walk from Disneyland, and a few minutes from Bubba Gumps, The Cheescake factory etc.Attached to the hotel is the pizza press which is a cheap but great little pizza restaurant. All the staff were brilliant, hotel very clean, rooms comfortable. It has a really nice pool which we didn’t use due to poor weather. We would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r585581592-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>585581592</t>
+  </si>
+  <si>
+    <t>06/06/2018</t>
+  </si>
+  <si>
+    <t>Great Cheap Honeymoon Spot!!</t>
+  </si>
+  <si>
+    <t>My new husband and I loved this place! We reserved this last minute and when we arrived the room was neat and clean and the cleaning ladies were very sweet and attentive! Its about 5 minutes away from Disney itself and about 20 minutes (without traffic) to LA. The rooms were always cool, the showers were clean and we enjoyed sitting on the balcony after a long night in LA and just eating a pizza and enjoying the warm air! Overall this was a great location at a great price! We will definitely be returning to this place on our next trip to Anaheim/LA</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r584029656-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>584029656</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>Good Choice.</t>
+  </si>
+  <si>
+    <t>Recently stayed at The Anaheim Hotel for 4 nights. 2 adults and our 8 year old son.Very pleased with its location, a very easy quick walk to the main gates of Disneyland.The main areas, lobby, huge pool, restaurant and bar areas are all great and have undergone a refurb. I expect the next stage for refurb might be the rooms, which are needing some money spent on them. While the rooms are adequate and comfortable the bathrooms are showing their age, but are very clean. The towels need replacing.Our first night was spent in room 735. It was dreadfully noisy. A constant loud noise, possibly from an industrial air con unit made it very difficult to sleep. We mentioned this to Carlos at reception the next day,he was very helpful and offered us another room 411 which was quiet.I would suggest asking for a room on the top floor, as you do hear people walking above you if you’re in ground floor rooms.The pizza restaurant was good and convenient to grab a quick meal, and the coffee was excellent in the morning at the bar. A quick espresso to fuel up for our mega Disney day!We would recommend this hotel, as it’s good value and offers a comfortable home base to recharge tired humans between Disneyland visits.MoreShow less</t>
+  </si>
+  <si>
+    <t>Recently stayed at The Anaheim Hotel for 4 nights. 2 adults and our 8 year old son.Very pleased with its location, a very easy quick walk to the main gates of Disneyland.The main areas, lobby, huge pool, restaurant and bar areas are all great and have undergone a refurb. I expect the next stage for refurb might be the rooms, which are needing some money spent on them. While the rooms are adequate and comfortable the bathrooms are showing their age, but are very clean. The towels need replacing.Our first night was spent in room 735. It was dreadfully noisy. A constant loud noise, possibly from an industrial air con unit made it very difficult to sleep. We mentioned this to Carlos at reception the next day,he was very helpful and offered us another room 411 which was quiet.I would suggest asking for a room on the top floor, as you do hear people walking above you if you’re in ground floor rooms.The pizza restaurant was good and convenient to grab a quick meal, and the coffee was excellent in the morning at the bar. A quick espresso to fuel up for our mega Disney day!We would recommend this hotel, as it’s good value and offers a comfortable home base to recharge tired humans between Disneyland visits.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r582210613-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>582210613</t>
+  </si>
+  <si>
+    <t>05/23/2018</t>
+  </si>
+  <si>
+    <t>Great deal</t>
+  </si>
+  <si>
+    <t>This hotel is offering many discounts available including Disney annual pass making for a great value on a hotel that is withiin easy walking distance of the Anaheim Parks. Still undergoing what has turned into massive removations of an older property with some very unique landscaping. very nice sized rooms with patio or balcony. Great deal! The pizza prss restaurant is nothing short of incredible (especially for the price). Very professional staff!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r581996582-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>581996582</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t>False Advertising</t>
+  </si>
+  <si>
+    <t>I decided to stay at this hotel on a recommendation from a friend because they said it was updated and close to disneyland. I was pretty disappointed when I got to the room. Stains on the ceiling, furniture is really outdated, floors need replacing, bed was not comfortable and looked old. The size of the room and bathroom are big but the lack of furniture makes it feel empty and incomplete. The lobby looks nice, clean &amp; modern which is what the rooms should also look like. I decided on the second day of my stay to relook at the website because I knew I wouldn’t book a hotel that looked like the room I stayed in. The photos were nothing like the room I had - not the same furniture, or bedding, ect - and then I realized that I got an old room. So i paid and booked this hotel based on their website photos, thinking i’d get a nice clean room. I definitely feel like I wasted my money and that it was falsely advertised to me. Only pro was that it was a very close walk to disneyland.MoreShow less</t>
+  </si>
+  <si>
+    <t>I decided to stay at this hotel on a recommendation from a friend because they said it was updated and close to disneyland. I was pretty disappointed when I got to the room. Stains on the ceiling, furniture is really outdated, floors need replacing, bed was not comfortable and looked old. The size of the room and bathroom are big but the lack of furniture makes it feel empty and incomplete. The lobby looks nice, clean &amp; modern which is what the rooms should also look like. I decided on the second day of my stay to relook at the website because I knew I wouldn’t book a hotel that looked like the room I stayed in. The photos were nothing like the room I had - not the same furniture, or bedding, ect - and then I realized that I got an old room. So i paid and booked this hotel based on their website photos, thinking i’d get a nice clean room. I definitely feel like I wasted my money and that it was falsely advertised to me. Only pro was that it was a very close walk to disneyland.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r580887744-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>580887744</t>
+  </si>
+  <si>
+    <t>05/17/2018</t>
+  </si>
+  <si>
+    <t>Possibly a new favorite?</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for our annual Disney resort vacation this year and we had an overall great experience at this hotel. To start, we arrived early on our check in day and I was not expecting to be able to check-in to the room(and that would have been ok, considering that it was about 10:15 A.M. when we arrived) , but the front desk associate informed us that our room was in fact ready and we were able to check in to the room right away. This was a big plus for us because we didn't have to worry about leaving our bags in our vehicle while we headed over to the park. Upon entering the room, we were pleasantly surprised by the renovations that have been made to this hotel. The bathroom, furniture, fixtures, bedding and carpet were all upgraded. The vanity area had double sinks, which is great when you're traveling with multiple people and you're in a rush to get ready in the morning before heading out to the park. The carpet was very clean and the beds were extremely comfortable. Our room was on the second level of the 700 building and we had a nice view of Disney Way down below. Overall, everything about the room was great! Other than the hotel itself, one of the other great things about The Anaheim Hotel is the location. From our room to the park...My family and I stayed here for our annual Disney resort vacation this year and we had an overall great experience at this hotel. To start, we arrived early on our check in day and I was not expecting to be able to check-in to the room(and that would have been ok, considering that it was about 10:15 A.M. when we arrived) , but the front desk associate informed us that our room was in fact ready and we were able to check in to the room right away. This was a big plus for us because we didn't have to worry about leaving our bags in our vehicle while we headed over to the park. Upon entering the room, we were pleasantly surprised by the renovations that have been made to this hotel. The bathroom, furniture, fixtures, bedding and carpet were all upgraded. The vanity area had double sinks, which is great when you're traveling with multiple people and you're in a rush to get ready in the morning before heading out to the park. The carpet was very clean and the beds were extremely comfortable. Our room was on the second level of the 700 building and we had a nice view of Disney Way down below. Overall, everything about the room was great! Other than the hotel itself, one of the other great things about The Anaheim Hotel is the location. From our room to the park entrance was probably about a 5-8 minute walk. Being able to quickly get to your room for an afternoon break or at the end of a long Disney day is very important when traveling with children. And the location of this hotel, easily makes this possible. We spend most of our time at the park, so we didn't really have a chance to check out more of what the hotel had to offer. But from what we could see, the pool area looked nice with private cabanas, there was a gift shop located next to the lobby and the Pizza Press restaurant, located in front of the hotel, makes great pizza. Overall we were very pleased with our stay and we will definitely consider The Anaheim Hotel as a top option for our next trip to Anaheim.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for our annual Disney resort vacation this year and we had an overall great experience at this hotel. To start, we arrived early on our check in day and I was not expecting to be able to check-in to the room(and that would have been ok, considering that it was about 10:15 A.M. when we arrived) , but the front desk associate informed us that our room was in fact ready and we were able to check in to the room right away. This was a big plus for us because we didn't have to worry about leaving our bags in our vehicle while we headed over to the park. Upon entering the room, we were pleasantly surprised by the renovations that have been made to this hotel. The bathroom, furniture, fixtures, bedding and carpet were all upgraded. The vanity area had double sinks, which is great when you're traveling with multiple people and you're in a rush to get ready in the morning before heading out to the park. The carpet was very clean and the beds were extremely comfortable. Our room was on the second level of the 700 building and we had a nice view of Disney Way down below. Overall, everything about the room was great! Other than the hotel itself, one of the other great things about The Anaheim Hotel is the location. From our room to the park...My family and I stayed here for our annual Disney resort vacation this year and we had an overall great experience at this hotel. To start, we arrived early on our check in day and I was not expecting to be able to check-in to the room(and that would have been ok, considering that it was about 10:15 A.M. when we arrived) , but the front desk associate informed us that our room was in fact ready and we were able to check in to the room right away. This was a big plus for us because we didn't have to worry about leaving our bags in our vehicle while we headed over to the park. Upon entering the room, we were pleasantly surprised by the renovations that have been made to this hotel. The bathroom, furniture, fixtures, bedding and carpet were all upgraded. The vanity area had double sinks, which is great when you're traveling with multiple people and you're in a rush to get ready in the morning before heading out to the park. The carpet was very clean and the beds were extremely comfortable. Our room was on the second level of the 700 building and we had a nice view of Disney Way down below. Overall, everything about the room was great! Other than the hotel itself, one of the other great things about The Anaheim Hotel is the location. From our room to the park entrance was probably about a 5-8 minute walk. Being able to quickly get to your room for an afternoon break or at the end of a long Disney day is very important when traveling with children. And the location of this hotel, easily makes this possible. We spend most of our time at the park, so we didn't really have a chance to check out more of what the hotel had to offer. But from what we could see, the pool area looked nice with private cabanas, there was a gift shop located next to the lobby and the Pizza Press restaurant, located in front of the hotel, makes great pizza. Overall we were very pleased with our stay and we will definitely consider The Anaheim Hotel as a top option for our next trip to Anaheim.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r580512654-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>580512654</t>
+  </si>
+  <si>
+    <t>05/15/2018</t>
+  </si>
+  <si>
+    <t>Disneyland Holiday</t>
+  </si>
+  <si>
+    <t>Exceptional customer service on arrival, we asked for interconnecting rooms for our 2 groups, Sam Anguiano went out of his way to meet our request, which we were very thankful for.All staff acknowledged us upon entry and exit with a friendly smile.Close to lots of eating places ie Cheesecake Factory Great little bar, thanks Joseph for your friendly service.Easy walking distance to Disneyland.Overall a great place to stay. Highly Recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>TAHManagement, Manager at The Anaheim Hotel, responded to this reviewResponded May 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2018</t>
+  </si>
+  <si>
+    <t>Exceptional customer service on arrival, we asked for interconnecting rooms for our 2 groups, Sam Anguiano went out of his way to meet our request, which we were very thankful for.All staff acknowledged us upon entry and exit with a friendly smile.Close to lots of eating places ie Cheesecake Factory Great little bar, thanks Joseph for your friendly service.Easy walking distance to Disneyland.Overall a great place to stay. Highly Recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r579939592-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>579939592</t>
+  </si>
+  <si>
+    <t>05/13/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average hotel near Disney entrance </t>
+  </si>
+  <si>
+    <t>The location to the park was the biggest plus and the pizza place adjacent to the hotel. The pool area, grounds and lobby were good. The room was nothing special. Our closet door barely opened, the floor was so squeaky, the toliet had flush problems and the bath water took a long time to drain. Beds were ok and decor was basic. Overall an average hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r578859068-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>578859068</t>
+  </si>
+  <si>
+    <t>05/08/2018</t>
+  </si>
+  <si>
+    <t>Good location, not far from Disneyland</t>
+  </si>
+  <si>
+    <t>When I arrived at check-in time, my room wasn't ready until about 40 minutes after so I had to wait. They upgraded my room at no charge, which was a nice gesture. The employee who helped me check in was a bit rude. The room wasn't as clean as I liked it to be. The shower was stained, didn't look like it had been scrubbed clean. The sink faucet and its handles had toothpaste stains covering them. Overall, for the price and location it's a good hotel. However I will not be staying again due to the cleanliness issue.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r578411311-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>578411311</t>
+  </si>
+  <si>
+    <t>05/06/2018</t>
+  </si>
+  <si>
+    <t>Best hotel EVER!</t>
+  </si>
+  <si>
+    <t>Clean. Friendly staff and very military friendly! I mentioned my husnand’s 21st anniversary with the army being The Weeknd we stayed and the conscierge upgraded us to a room with a balcony overlooking the back of the Disney parks! There were also these AMAZING chocolate chip cookies left in the room with a note from the staff thanking him for his service! Very convenient to familiar restaurants like IHOP and Denny’s as well as a couple blocks to the Disney parks! I posted a glowing review on social media while we were there and already have a friend who is strongly considering staying there next year with her family. MoreShow less</t>
+  </si>
+  <si>
+    <t>TAHManagement, Manager at The Anaheim Hotel, responded to this reviewResponded May 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2018</t>
+  </si>
+  <si>
+    <t>Clean. Friendly staff and very military friendly! I mentioned my husnand’s 21st anniversary with the army being The Weeknd we stayed and the conscierge upgraded us to a room with a balcony overlooking the back of the Disney parks! There were also these AMAZING chocolate chip cookies left in the room with a note from the staff thanking him for his service! Very convenient to familiar restaurants like IHOP and Denny’s as well as a couple blocks to the Disney parks! I posted a glowing review on social media while we were there and already have a friend who is strongly considering staying there next year with her family. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r577506277-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>577506277</t>
+  </si>
+  <si>
+    <t>05/02/2018</t>
+  </si>
+  <si>
+    <t>Nice place close to Disneyland.</t>
+  </si>
+  <si>
+    <t>The rooms here are nice. There is a refrigerator and coffee maker in the rooms. Great for families with kids. The Olympic size swimming pool is awesome. The staff here is always friendly. Good drinks and food at the bar. If you have a problem in the room, let the staff know and they will take care of it.MoreShow less</t>
+  </si>
+  <si>
+    <t>TAHManagement, Manager at The Anaheim Hotel, responded to this reviewResponded May 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2018</t>
+  </si>
+  <si>
+    <t>The rooms here are nice. There is a refrigerator and coffee maker in the rooms. Great for families with kids. The Olympic size swimming pool is awesome. The staff here is always friendly. Good drinks and food at the bar. If you have a problem in the room, let the staff know and they will take care of it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r576644492-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>576644492</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service</t>
+  </si>
+  <si>
+    <t>We came with a group of 155 teens for a Disney trip.  Getting the correct room assignments for that many teens is nearly impossible but the staff were kind, gracious and patient and all our teens were happy.  Stephen was wonderful to work with and would book here again for the next trip!MoreShow less</t>
+  </si>
+  <si>
+    <t>TAHManagement, Manager at The Anaheim Hotel, responded to this reviewResponded May 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2018</t>
+  </si>
+  <si>
+    <t>We came with a group of 155 teens for a Disney trip.  Getting the correct room assignments for that many teens is nearly impossible but the staff were kind, gracious and patient and all our teens were happy.  Stephen was wonderful to work with and would book here again for the next trip!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r575837592-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>575837592</t>
+  </si>
+  <si>
+    <t>04/26/2018</t>
+  </si>
+  <si>
+    <t>Make your reservations online,</t>
+  </si>
+  <si>
+    <t>Great location, great staff perfect for a Disney getaway. Made return reservations with front desk, have asked 5 times for that reservation to be email, I have yet to receive it.  Not sure why?  Probably best to cancel and just re book myself..If you want to be a part of their frequent stayer program, you must book directly with them.MoreShow less</t>
+  </si>
+  <si>
+    <t>TAHManagement, Manager at The Anaheim Hotel, responded to this reviewResponded April 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2018</t>
+  </si>
+  <si>
+    <t>Great location, great staff perfect for a Disney getaway. Made return reservations with front desk, have asked 5 times for that reservation to be email, I have yet to receive it.  Not sure why?  Probably best to cancel and just re book myself..If you want to be a part of their frequent stayer program, you must book directly with them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r575667573-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>575667573</t>
+  </si>
+  <si>
+    <t>04/25/2018</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>Not the best hotel, but if you want to save money, you can stay here. They have an okay sized pool &amp; hot tub, but chairs are VERY limited. The rooms are not really up to date in my opinion. After the maid services visited our room, several things appeared to be gone or missing. I believe they have 1-2 restaurants on sight, but I did not eat at any of them. The location is not bad though, it's only a short walk to restaurants, CVS, Disney, etc. No breakfast was included.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Not the best hotel, but if you want to save money, you can stay here. They have an okay sized pool &amp; hot tub, but chairs are VERY limited. The rooms are not really up to date in my opinion. After the maid services visited our room, several things appeared to be gone or missing. I believe they have 1-2 restaurants on sight, but I did not eat at any of them. The location is not bad though, it's only a short walk to restaurants, CVS, Disney, etc. No breakfast was included.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r575212258-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>575212258</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>Amazing Service</t>
+  </si>
+  <si>
+    <t>Just checked out of our hotel of 3days &amp; 2 nights &amp; we couldn’t be more satisfied! Candi took great care of us &amp; had amazing customer service ! We will be back again for our next vacation! -The Todorvitch FamilyMoreShow less</t>
+  </si>
+  <si>
+    <t>Just checked out of our hotel of 3days &amp; 2 nights &amp; we couldn’t be more satisfied! Candi took great care of us &amp; had amazing customer service ! We will be back again for our next vacation! -The Todorvitch FamilyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r575022085-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>575022085</t>
+  </si>
+  <si>
+    <t>04/22/2018</t>
+  </si>
+  <si>
+    <t>Location Location Location</t>
+  </si>
+  <si>
+    <t>My family of 3 stayed here for 3 nights mid week and received the 25% off deal. We were in the 500 building close to the pool. I don't think this building has been renovated as the other buildings have. We had a tiny room with 2 Doubles (I reserved a larger room with 2 Queens, but didn't complain as we got an early check in). 
+If our room had been cleaned this rating would go to a 4 out of 5. I am totally fine with an older non renovated room and building, but its frustrating that they didn't even clean it. Its someone's job and it wasn't done. 
+The rooms are motel style, with the doors opening to the outdoors. I was also told by the front desk that the 2 KING rooms do not come with a balcony or patio. 
+PROS:
+Granted an early check in (2pm) 
+Easy check out
+Nice foyer renovation
+Friendly and helpful staff
+5 minute walk North to the parks
+5 minute walk South to a Liquor store
+Nice large heated swimming pool and Hot tub spa
+Garden Walk right behind hotel
+One bed was very comfortable with 3 pillows
+Room had a small safe
+Microwave 
+Good sized fridge
+Extra plug ins on the bedside table
+Nice patio with lounger and small table (patio same size as our room)
+Great Pizza Restaurant on location (serves breakfast)
+Nicely landscaped, lots of plants and trees...My family of 3 stayed here for 3 nights mid week and received the 25% off deal. We were in the 500 building close to the pool. I don't think this building has been renovated as the other buildings have. We had a tiny room with 2 Doubles (I reserved a larger room with 2 Queens, but didn't complain as we got an early check in). If our room had been cleaned this rating would go to a 4 out of 5. I am totally fine with an older non renovated room and building, but its frustrating that they didn't even clean it. Its someone's job and it wasn't done. The rooms are motel style, with the doors opening to the outdoors. I was also told by the front desk that the 2 KING rooms do not come with a balcony or patio. PROS:Granted an early check in (2pm) Easy check outNice foyer renovationFriendly and helpful staff5 minute walk North to the parks5 minute walk South to a Liquor storeNice large heated swimming pool and Hot tub spaGarden Walk right behind hotelOne bed was very comfortable with 3 pillowsRoom had a small safeMicrowave Good sized fridgeExtra plug ins on the bedside tableNice patio with lounger and small table (patio same size as our room)Great Pizza Restaurant on location (serves breakfast)Nicely landscaped, lots of plants and treesCONS:Basic cable on flat screen TV, no HD, no Disney channelsTerrible Reuben sandwich version at loungeOne bed was terribly caved in on one side with a lumpy mattress topperSeriously filthy room (not vacuumed, not dusted at all, hair on bathroom floor and tub, fingerprints and grime on faucets and toilet paper holder) We seriously wondered WHAT the cleaning staff actually do, just change the towels?The AC unit was full of black grime/mold, we turned it right off Lots of noise from second floorPatio door handle flew off in our hands onto the floorIn the hallway, there was garbage that sat there for 3 daysThe peephole on the door was filthy and distorted when looking throughNo blackout blinds, very bright in roomPool / spa closes as 10pm, wish it was later to enjoy after the parksDespite the CONS, I would likely stay here again due strictly to the price, pool and location.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family of 3 stayed here for 3 nights mid week and received the 25% off deal. We were in the 500 building close to the pool. I don't think this building has been renovated as the other buildings have. We had a tiny room with 2 Doubles (I reserved a larger room with 2 Queens, but didn't complain as we got an early check in). 
+If our room had been cleaned this rating would go to a 4 out of 5. I am totally fine with an older non renovated room and building, but its frustrating that they didn't even clean it. Its someone's job and it wasn't done. 
+The rooms are motel style, with the doors opening to the outdoors. I was also told by the front desk that the 2 KING rooms do not come with a balcony or patio. 
+PROS:
+Granted an early check in (2pm) 
+Easy check out
+Nice foyer renovation
+Friendly and helpful staff
+5 minute walk North to the parks
+5 minute walk South to a Liquor store
+Nice large heated swimming pool and Hot tub spa
+Garden Walk right behind hotel
+One bed was very comfortable with 3 pillows
+Room had a small safe
+Microwave 
+Good sized fridge
+Extra plug ins on the bedside table
+Nice patio with lounger and small table (patio same size as our room)
+Great Pizza Restaurant on location (serves breakfast)
+Nicely landscaped, lots of plants and trees...My family of 3 stayed here for 3 nights mid week and received the 25% off deal. We were in the 500 building close to the pool. I don't think this building has been renovated as the other buildings have. We had a tiny room with 2 Doubles (I reserved a larger room with 2 Queens, but didn't complain as we got an early check in). If our room had been cleaned this rating would go to a 4 out of 5. I am totally fine with an older non renovated room and building, but its frustrating that they didn't even clean it. Its someone's job and it wasn't done. The rooms are motel style, with the doors opening to the outdoors. I was also told by the front desk that the 2 KING rooms do not come with a balcony or patio. PROS:Granted an early check in (2pm) Easy check outNice foyer renovationFriendly and helpful staff5 minute walk North to the parks5 minute walk South to a Liquor storeNice large heated swimming pool and Hot tub spaGarden Walk right behind hotelOne bed was very comfortable with 3 pillowsRoom had a small safeMicrowave Good sized fridgeExtra plug ins on the bedside tableNice patio with lounger and small table (patio same size as our room)Great Pizza Restaurant on location (serves breakfast)Nicely landscaped, lots of plants and treesCONS:Basic cable on flat screen TV, no HD, no Disney channelsTerrible Reuben sandwich version at loungeOne bed was terribly caved in on one side with a lumpy mattress topperSeriously filthy room (not vacuumed, not dusted at all, hair on bathroom floor and tub, fingerprints and grime on faucets and toilet paper holder) We seriously wondered WHAT the cleaning staff actually do, just change the towels?The AC unit was full of black grime/mold, we turned it right off Lots of noise from second floorPatio door handle flew off in our hands onto the floorIn the hallway, there was garbage that sat there for 3 daysThe peephole on the door was filthy and distorted when looking throughNo blackout blinds, very bright in roomPool / spa closes as 10pm, wish it was later to enjoy after the parksDespite the CONS, I would likely stay here again due strictly to the price, pool and location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r575000600-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>575000600</t>
+  </si>
+  <si>
+    <t>Just okay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The location is great, it is such a short walk to the park, and food options near by. I would say it took about 10 min to walk to the gates of the Disneyland park each day. The room itself was pretty clean,  but the bathroom could have used some cleaning. We had some problems with the water like other guest but it didn’t seem as bad at night. Check in and check out was easy, no issues with charges to my card or parking. It wasn’t the best hotel I have stayed in, but for the price and location it was okay. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r574734346-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>574734346</t>
+  </si>
+  <si>
+    <t>04/21/2018</t>
+  </si>
+  <si>
+    <t>Great location, Clean Room</t>
+  </si>
+  <si>
+    <t>We’ve stayed at the Anaheim Hotel twice in the last three months because they’ve had great rates. The lobby and guest services are wonderful. It is nice to have the yummy Pizza Press and bar on site. The pool and workout room are nice and seem to be well taken care of. The $12 parking is super reasonable for the area. The room for our first stay was completely different than our first. We had two double beds and a patio. It was an old room and was missing pictures from the wall. Very outdated compared to the rest of the hotel. Our second room was much nicer. It was a huge room that had been recently painted and the bathroom looked redone. Overall, for the price and location the Anaheim Hotel is a good value. We would definitely consider staying again. MoreShow less</t>
+  </si>
+  <si>
+    <t>We’ve stayed at the Anaheim Hotel twice in the last three months because they’ve had great rates. The lobby and guest services are wonderful. It is nice to have the yummy Pizza Press and bar on site. The pool and workout room are nice and seem to be well taken care of. The $12 parking is super reasonable for the area. The room for our first stay was completely different than our first. We had two double beds and a patio. It was an old room and was missing pictures from the wall. Very outdated compared to the rest of the hotel. Our second room was much nicer. It was a huge room that had been recently painted and the bathroom looked redone. Overall, for the price and location the Anaheim Hotel is a good value. We would definitely consider staying again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r574396840-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>574396840</t>
+  </si>
+  <si>
+    <t>04/19/2018</t>
+  </si>
+  <si>
+    <t>Anaheim Hotel</t>
+  </si>
+  <si>
+    <t>Would have been a 5but we had problems getting into our room every night. Took 3 to 4 tries to get the key to work. Even had the valet try to get in and he had trouble. We had three room keyes and had trouble with all of them. Same problem would happen even after we had them rekeyed. We will continue to stay here as I believe that this was just a fluke as we never had this problem before.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r574241702-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>574241702</t>
+  </si>
+  <si>
+    <t>04/18/2018</t>
+  </si>
+  <si>
+    <t>Great location and good rooms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location and room. Staff is very friendly. Walls are thin and you can hear upstairs steps and noise if in lower level room. Bar closes very early. Property grounds are nicely kept. Rooms are dingy and walls are dirty especially for being recently remodeled. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r574221848-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>574221848</t>
+  </si>
+  <si>
+    <t>Performing Arts HS Trip - Valets are outstanding!</t>
+  </si>
+  <si>
+    <t>We traveled here with 153 high school students.  The rooms were amazing and the beds were very comfortable.  The hotel is a quick walk to Disney.  The cabana room was a great meeting place for our large group.  The trip was great!  Unfortunately, I hurt my knee while on duty in the lobby.  I could not walk on it.  Leo, the valet, was the only staff member who noticed and found a wheelchair for me and helped me to my room.  He also helped me get into transportation to a nearby hospital.  He was amazing!  When I returned from the hospital, Audrey pushed me to my room and got me ice in a pillow case, extra ice, and other items to help.  She also ordered a scooter for me.  The next day Caesar brought me the scooter and also checked to see how I was doing.  The valets went above and beyond to help me!  Leo, Audrey, and Caesar are definite assets to this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>We traveled here with 153 high school students.  The rooms were amazing and the beds were very comfortable.  The hotel is a quick walk to Disney.  The cabana room was a great meeting place for our large group.  The trip was great!  Unfortunately, I hurt my knee while on duty in the lobby.  I could not walk on it.  Leo, the valet, was the only staff member who noticed and found a wheelchair for me and helped me to my room.  He also helped me get into transportation to a nearby hospital.  He was amazing!  When I returned from the hospital, Audrey pushed me to my room and got me ice in a pillow case, extra ice, and other items to help.  She also ordered a scooter for me.  The next day Caesar brought me the scooter and also checked to see how I was doing.  The valets went above and beyond to help me!  Leo, Audrey, and Caesar are definite assets to this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r571915921-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>571915921</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location close to disney. The pizza place inside the restaurant is a great convenience for you after a long day at disney. The bell service guys were great and professional. Nice hotel for a family looking to budget </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r571796805-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>571796805</t>
+  </si>
+  <si>
+    <t>04/07/2018</t>
+  </si>
+  <si>
+    <t>Location is the key an the service is the lock</t>
+  </si>
+  <si>
+    <t>We came out here from Italy to stay for a week an we loved this place every thing went so well from service to hospitality pizza press is grate when we came in by Uber an we came across these to great valet Jim!!! An Charles. Jim walked us into the front desk an asked if we needed any help he put our belongings on a cart an he had so much to tell us about the place what was near by how to get where we needed to go faster then when he bring our luggage to the room he asked us if we needed ice then he set the time for us an also put our alarm for 7:30 all I have to say is thank you Jim so much I will definitely be back soon MoreShow less</t>
+  </si>
+  <si>
+    <t>We came out here from Italy to stay for a week an we loved this place every thing went so well from service to hospitality pizza press is grate when we came in by Uber an we came across these to great valet Jim!!! An Charles. Jim walked us into the front desk an asked if we needed any help he put our belongings on a cart an he had so much to tell us about the place what was near by how to get where we needed to go faster then when he bring our luggage to the room he asked us if we needed ice then he set the time for us an also put our alarm for 7:30 all I have to say is thank you Jim so much I will definitely be back soon More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r571434751-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>571434751</t>
+  </si>
+  <si>
+    <t>04/06/2018</t>
+  </si>
+  <si>
+    <t>Family trip for my daughters birthday</t>
+  </si>
+  <si>
+    <t>We will definitely be staying here when we visit Disneyland again. All the staff was very helpful. We got to the hotel early, way before check-in and were still accommodated into a room and did not have to wait to check in until the afternoon. It has a great pizza place adjoined to the hotel, so dinner was easy and the pace was great. They also have a cute little gift shop, good prices and convenient.  When we left the let us store our luggage, we were able to enjoy the day at the park, and then come get our stuff when it was time for us to leave to the airport for our flight. Leo, one of the hotel staff was so helpful in helping us load our bags into the uber, he even waited until we left before going back in to the hotel. Leo was very patient with us, seeing as we had to load 4 kids, 2 with car seats.It made our night having him help us out. Great place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>We will definitely be staying here when we visit Disneyland again. All the staff was very helpful. We got to the hotel early, way before check-in and were still accommodated into a room and did not have to wait to check in until the afternoon. It has a great pizza place adjoined to the hotel, so dinner was easy and the pace was great. They also have a cute little gift shop, good prices and convenient.  When we left the let us store our luggage, we were able to enjoy the day at the park, and then come get our stuff when it was time for us to leave to the airport for our flight. Leo, one of the hotel staff was so helpful in helping us load our bags into the uber, he even waited until we left before going back in to the hotel. Leo was very patient with us, seeing as we had to load 4 kids, 2 with car seats.It made our night having him help us out. Great place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r569562436-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>569562436</t>
+  </si>
+  <si>
+    <t>03/29/2018</t>
+  </si>
+  <si>
+    <t>Friendly Staff and Great Location</t>
+  </si>
+  <si>
+    <t>Check in was fast and easy,staff was very helpful,since we were a large group valet was more than helpful getting our bags down. (Bobby the guy with the blond dreads was extremely kind and helpful). Our room was clean,but I can understand how some say the hotel looks old.Location is great,they have Pizza Press next door,many food locations surrounding the hotel and Disneyland is right across the street.Will be back again for our next Disney trip.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r569518919-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>569518919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My visit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I loved my stay here ..my room was very comfortable and the staff was friendly and very helpful i will definitely be coming back and staying there during my family's next Disney trip.. also thank you to the young man with the dreads  Bobby was his name i believe .  He was very helpful , professional goin above and beyond the call of duty he earned each of his tips </t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r569290356-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>569290356</t>
+  </si>
+  <si>
+    <t>03/28/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel for Disneyland Guest</t>
+  </si>
+  <si>
+    <t>We had a great stay at the Anaheim Hotel - everything we needed was right there. Rooms were new and clean. The restaurant was great food/service and value! We will definately be back! This will be our go-to for all our Disneyland vacations</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r568644761-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>568644761</t>
+  </si>
+  <si>
+    <t>03/25/2018</t>
+  </si>
+  <si>
+    <t>Don't be fooled by the remodeled lobby!</t>
+  </si>
+  <si>
+    <t>The lobby had a nice mid-century modern look.  The rooms, however, were old and musty smelling.  My room had stained chairs - definitely didn't sit on those!  The bathroom had drain flies.  My room was at the very end of the property next to the parking and the door frame was cracked with NO guard bar on the door!  I asked to be moved but was told there were no available rooms.  My associates rooms were also musty and old but at least the doors were more secure.  I was never happier to check out of a hotel!  Close to the convention center and across from Disney but not worth it.  Think twice.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>The lobby had a nice mid-century modern look.  The rooms, however, were old and musty smelling.  My room had stained chairs - definitely didn't sit on those!  The bathroom had drain flies.  My room was at the very end of the property next to the parking and the door frame was cracked with NO guard bar on the door!  I asked to be moved but was told there were no available rooms.  My associates rooms were also musty and old but at least the doors were more secure.  I was never happier to check out of a hotel!  Close to the convention center and across from Disney but not worth it.  Think twice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r568565607-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>568565607</t>
+  </si>
+  <si>
+    <t>03/24/2018</t>
+  </si>
+  <si>
+    <t>No hot water</t>
+  </si>
+  <si>
+    <t>My family rented a room with two king size beds to stay for 3 nights. I went to take a shower and there was no hot water. After the maintenance man said there was nothingness he could do st the moment, a very helpful man by the name of Leo came to help. He showed me another room on the same floor and wanted to make sure the water ran hot. It also was cold. So he helped us move to another room which all they had left was a room with double beds. But they brought in another cot for our son to sleep on. I must say, it is a nice cot. I want to give a shout out to Leo for being so helpful, kind and professional!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>My family rented a room with two king size beds to stay for 3 nights. I went to take a shower and there was no hot water. After the maintenance man said there was nothingness he could do st the moment, a very helpful man by the name of Leo came to help. He showed me another room on the same floor and wanted to make sure the water ran hot. It also was cold. So he helped us move to another room which all they had left was a room with double beds. But they brought in another cot for our son to sleep on. I must say, it is a nice cot. I want to give a shout out to Leo for being so helpful, kind and professional!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r568542408-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>568542408</t>
+  </si>
+  <si>
+    <t>Third time trying to leave the review.</t>
+  </si>
+  <si>
+    <t>Hotel is great, includes numerous amenities. Has clean and comfortable rooms, and offers Annual Passholders discounts. I'm sick of writing this review now because tripadvisor can't keep it together hence this rant. Really though wonderful location, good bang for your buck. Staff, that unlike to coders for tripadvisor, know exactly what they're doing. Also Priceline&gt;Hotels&gt;tripadvisor, it's probably why they don't capitalize the letters in their name.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r568264747-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>568264747</t>
+  </si>
+  <si>
+    <t>03/23/2018</t>
+  </si>
+  <si>
+    <t>Clean &amp; Close</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel value. Very short walk to DL. Pleasant staff who greet us each time we walk by and are helpful with questions. The remodel that happened recently really improved the layout of the rooms since our last visit. The rooms are big enough for our family of three and a jogging stroller to fit comfortably. They’re also very clean and quiet. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r568260098-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>568260098</t>
+  </si>
+  <si>
+    <t>Great Stay at the Anaheim Hotel</t>
+  </si>
+  <si>
+    <t>This was the perfect location and price for us.  The staff was so friendly and helpful through the entire visit.  The concierge helped to arrange all of our transportation to and from the airport and booked us on a tour of LA.  Everything was seamless!  The hotel was clean and we enjoyed our two night stay very much.  Our walk to the Disney parks was just a few minutes.  There is also a lot to do in the area.  I would definitely stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r567371730-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>567371730</t>
+  </si>
+  <si>
+    <t>03/18/2018</t>
+  </si>
+  <si>
+    <t>great hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">great place to stay when doing to disneyland. Love the vibe and a nice bar. Let us check in early so we could have a full day in the park. Staff was friendly and helpful. Bartender on first night was friendly and helpful with disneyland insite </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r565924541-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>565924541</t>
+  </si>
+  <si>
+    <t>03/11/2018</t>
+  </si>
+  <si>
+    <t>Great hotel in excellent location</t>
+  </si>
+  <si>
+    <t>The hotel was great value for money, clean, comfortable rooms and the staff were very help full. Very conveniently located only a short walk from the Disneyland enterance. I wouldn’t hesitate to stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r565494217-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>565494217</t>
+  </si>
+  <si>
+    <t>03/09/2018</t>
+  </si>
+  <si>
+    <t>Return guests...and will return again!</t>
+  </si>
+  <si>
+    <t>When we stayed here in September, we were thrilled at this hotel and staff and came home and booked our stay for this past week at that time. Once again we were not disappointed. It just keeps getting better and better. As soon as we figure out our next Disneyland trip we will be booking The Anaheim Hotel for our stay. It was excellent stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r565370664-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>565370664</t>
+  </si>
+  <si>
+    <t>03/08/2018</t>
+  </si>
+  <si>
+    <t>Retro Old Style Comfy</t>
+  </si>
+  <si>
+    <t>On the first look, the Hotel looks fantastic, we got a good room rate, nice facility but we had some issues, first we got the wrong room, then we switched to the one we ordered, but our luggage was not where it was supposed to be. Thanks to Leo and Steve it was all sorted out and I was thrilled. Leo is such a fantastic employee he really pulled out trip our of the fire and turned it around. In my opinion being able to fix a problem and the way it is fixed says more than staying someplace where everything goes smooth until something goes wrong and no one knows how to act.  Well here they knew how to handle it. I will be giving this hotel another try thanks to these two gentlemenMoreShow less</t>
+  </si>
+  <si>
+    <t>On the first look, the Hotel looks fantastic, we got a good room rate, nice facility but we had some issues, first we got the wrong room, then we switched to the one we ordered, but our luggage was not where it was supposed to be. Thanks to Leo and Steve it was all sorted out and I was thrilled. Leo is such a fantastic employee he really pulled out trip our of the fire and turned it around. In my opinion being able to fix a problem and the way it is fixed says more than staying someplace where everything goes smooth until something goes wrong and no one knows how to act.  Well here they knew how to handle it. I will be giving this hotel another try thanks to these two gentlemenMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r565062716-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>565062716</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t>Very close to Disneyland</t>
+  </si>
+  <si>
+    <t>It was about a 5-10minute walk to the security lines to enter the park. Check in was a breeze. We got a room with two king beds and there was ample space for our one night stay. The room was clean and very decent for the price we paid and the proximity to Disneyland. We would definitely stay here again next time we have a Disney weekend trip.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r564909388-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>564909388</t>
+  </si>
+  <si>
+    <t>03/06/2018</t>
+  </si>
+  <si>
+    <t>nice place to stay</t>
+  </si>
+  <si>
+    <t>it's so near Disney and it's safe people are nice.  I Lost my cell phone and people at front desk missed my phone it was there and they didn't see it. Thanks to Leo he's an employee he look very hard and there it was. Also Leo help us with a sick relative he's an angel thank you Leo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r564577489-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>564577489</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>Excellent remodel</t>
+  </si>
+  <si>
+    <t>Remodel was great, Rooms were clean and fresh. We have stayed many times before but were pleasantly surprised at how nice everything is now. Only thing they could improve on is the pizza restaurant.  Would like to see a more diverse eatery.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r563243786-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>563243786</t>
+  </si>
+  <si>
+    <t>02/27/2018</t>
+  </si>
+  <si>
+    <t>Horrible Experience w/ horrible customer service</t>
+  </si>
+  <si>
+    <t>We went to Anaheim for a convention and decided to stay at a hotel right next to the convention center.  After booking we were notified that the hotel (Anabella) was closing down and they had to move our reservation to a sister hotel.  When we got to the Anaheim hotel and checked in, we walked outside to our room.  They were obviously doing construction at the time, so the grounds had fences up and not in great shape.  We walked into our room and found a basic very small room that was completely different from what we expected when we booked.  When we tried to get a refund or a larger room the staff were extremely rude and told us they couldn't refund the price and basically needed to speak to a member of management.  After speaking with numerous people in person and over the phone the hotel basically said sorry we can't help you.  For the amount of money you would spend at this hotel, you can stay at MUCH nicer locations with more amenities and better service.  I would not recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>We went to Anaheim for a convention and decided to stay at a hotel right next to the convention center.  After booking we were notified that the hotel (Anabella) was closing down and they had to move our reservation to a sister hotel.  When we got to the Anaheim hotel and checked in, we walked outside to our room.  They were obviously doing construction at the time, so the grounds had fences up and not in great shape.  We walked into our room and found a basic very small room that was completely different from what we expected when we booked.  When we tried to get a refund or a larger room the staff were extremely rude and told us they couldn't refund the price and basically needed to speak to a member of management.  After speaking with numerous people in person and over the phone the hotel basically said sorry we can't help you.  For the amount of money you would spend at this hotel, you can stay at MUCH nicer locations with more amenities and better service.  I would not recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r563154020-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>563154020</t>
+  </si>
+  <si>
+    <t>Great value and perfect location to Disneyland.</t>
+  </si>
+  <si>
+    <t>This hotel is a very good value for the location to Disneyland and local restaurants and shops.  Fun retro decor in lobby with a nice bar area.  Very friendly staff.  The rooms were very clean and comfortable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r562206109-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>562206109</t>
+  </si>
+  <si>
+    <t>02/22/2018</t>
+  </si>
+  <si>
+    <t>Just returned from my trip and we stayed at this Hotel. The rooms were great size and sinks were separate from the shower and toilet which makes getting ready easy when your a few people in the room. The pool was Large, hotel staff were friendly and helpful. Great location 5 to 10 minute walk to everything</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r560371714-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>560371714</t>
+  </si>
+  <si>
+    <t>02/13/2018</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>Walking distance to Disney parks making it easy to go back to the hotel if you want to take a break (if you have small children). Price is not too bad considering the distance to Disneyland. Room is getting to be a little on the old side.Not too impressed with hotel charging me USD$4.00 per parcel (things that I bought on line and got delivered to the hotel).MoreShow less</t>
+  </si>
+  <si>
+    <t>TAHManagement, Manager at The Anaheim Hotel, responded to this reviewResponded February 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2018</t>
+  </si>
+  <si>
+    <t>Walking distance to Disney parks making it easy to go back to the hotel if you want to take a break (if you have small children). Price is not too bad considering the distance to Disneyland. Room is getting to be a little on the old side.Not too impressed with hotel charging me USD$4.00 per parcel (things that I bought on line and got delivered to the hotel).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r560318760-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>560318760</t>
+  </si>
+  <si>
+    <t>Comfortable walk to Disneyland and a great room</t>
+  </si>
+  <si>
+    <t>We loved the hotel. Private patio. Attached pizza restaurant. Beautiful pool. Laundry room was useful. Friendly and courteous staff. Clean linens, nice soaps. Comfy beds and nice pillows. Private. Quiet all times of the day. Comfortable walk to Disneyland parks, especially at the end of a long day, didn't take forever to get back. MoreShow less</t>
+  </si>
+  <si>
+    <t>We loved the hotel. Private patio. Attached pizza restaurant. Beautiful pool. Laundry room was useful. Friendly and courteous staff. Clean linens, nice soaps. Comfy beds and nice pillows. Private. Quiet all times of the day. Comfortable walk to Disneyland parks, especially at the end of a long day, didn't take forever to get back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r560158062-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>560158062</t>
+  </si>
+  <si>
+    <t>02/12/2018</t>
+  </si>
+  <si>
+    <t>Stay was alright...with some core issues...</t>
+  </si>
+  <si>
+    <t>I worked in the hotel business during college, around 7 years. I know the in's and out's from cleaning the rooms, maintenance, to working the front desk. I'll start with the negatives and end with the positives of the hotel.
+Negatives:
+-Deposits are required up to $100 per room; most hotels only charge $50.  Make sure DO NOT use a Debit Card. 
+- Water in both of our rooms (721 and 723) kept going from hot to cold. Really bad little or no water pressure
+- AC/Heater units have high pitch noise in 721 and 723 sounded like a semi truck
+- Really thin walls all around, could hear neighbors all throughout the night.
+- Ceiling creaks like no tomorrow if you have neighbors above you. 
+- 2 out of 4 mornings we didn't get room service. Actually had to get rude after it happen the 2nd time. 
+- Rooms are recently renovated but it looks really rushed in the bathroom area. Stress cracks are already starting show really bad. Mold is already forming in bathtub above shower in 723.  Sink faucets could be moved in 180 degree, not tighten on.  
+- I could keep going on, but really don't want to scare people off from staying here. I can tell a lot of work has been done to get things updated but lots of areas were seemed rushed to meet deadlines.
+- WiFi sucks, really sucks, you have to...I worked in the hotel business during college, around 7 years. I know the in's and out's from cleaning the rooms, maintenance, to working the front desk. I'll start with the negatives and end with the positives of the hotel.Negatives:-Deposits are required up to $100 per room; most hotels only charge $50.  Make sure DO NOT use a Debit Card. - Water in both of our rooms (721 and 723) kept going from hot to cold. Really bad little or no water pressure- AC/Heater units have high pitch noise in 721 and 723 sounded like a semi truck- Really thin walls all around, could hear neighbors all throughout the night.- Ceiling creaks like no tomorrow if you have neighbors above you. - 2 out of 4 mornings we didn't get room service. Actually had to get rude after it happen the 2nd time. - Rooms are recently renovated but it looks really rushed in the bathroom area. Stress cracks are already starting show really bad. Mold is already forming in bathtub above shower in 723.  Sink faucets could be moved in 180 degree, not tighten on.  - I could keep going on, but really don't want to scare people off from staying here. I can tell a lot of work has been done to get things updated but lots of areas were seemed rushed to meet deadlines.- WiFi sucks, really sucks, you have to be outside your room to get a signal.- No free continental type breakfast. Positives:- Updated fixtures, furniture, beds, carpet, rooms painted, etc. - Bathrooms look great! Just rushed in some areas. (see above)- The room rates are to bad being so close to Disney.- Quick trip to the front, to their convenience store and pizza shop to met all your needs if you've been in the park all day.- Walgreen's and other eating establishments within 5 minutes walking. Final Thoughts:- Gosh, you gotta get that Wi-fi fixed that reaches all your rooms. After a long day at Disney, people want to rest and just enjoy getting on the internet. But that ain't going to happen with that crappy wireless connection. You all need to get this fixed asap. If you're able to update all your rooms, the front lobby, parking lot, etc...you can spend more money to fix your spotty wireless. - Your rooms look great but it seems like your AC/Heaters, Water heater, and plumbing weren't updated during your re-model. That's equivalent to fixing up a classic car without working and updating the motor and making it a more reliable driver. AC/Heaters, Water heater, and updating your plumbing is just as important, if not more important, than remodel all your rooms. I would rather stay in an outdated clean room knowing my AC/Heater and shower are working properly.- Keep up on your maids and make sure they clean those rooms! Again, we went 2 out of 4 mornings without clean towels and other cleaning services. My tips to the future guest:- My opinion can only reflect my 4 night stay there with family in rooms 721 and 723 on the first floors. Use my feedback combined with others before you turn away from this hotel. Make sure to look for detailed reviews from past guest. Don't go with the one liner hotel reviews like "this was a great spacious stay", or if they just have 1 or two reviews under their belt - Stay on the 2nd floor, the first floor rooms I could hear 2nd floor guest walking back and forth all throughout the night. It wasn't their fault, the 2nd floor flooring should had been tested and updated during their remodel. - I enjoyed their breakfast at the pizza place but it's really expensive. The most basic breakfast plate was around $11+ tax. - Make sure to review the room before you stay. Request you see your room first to make sure it meets your requirements. As a guest, you are entitled to this. I learnt my lesson by not checking Things to check- 1. Check wifi 2. Water Pressure (check hot/cold) 3. AC/Heater Unit 4. And room is clean to your standards. Would I stay here again? Probably not, there are other hotels around I'll check out first for the price I'm paying per night for this room.MoreShow less</t>
+  </si>
+  <si>
+    <t>I worked in the hotel business during college, around 7 years. I know the in's and out's from cleaning the rooms, maintenance, to working the front desk. I'll start with the negatives and end with the positives of the hotel.
+Negatives:
+-Deposits are required up to $100 per room; most hotels only charge $50.  Make sure DO NOT use a Debit Card. 
+- Water in both of our rooms (721 and 723) kept going from hot to cold. Really bad little or no water pressure
+- AC/Heater units have high pitch noise in 721 and 723 sounded like a semi truck
+- Really thin walls all around, could hear neighbors all throughout the night.
+- Ceiling creaks like no tomorrow if you have neighbors above you. 
+- 2 out of 4 mornings we didn't get room service. Actually had to get rude after it happen the 2nd time. 
+- Rooms are recently renovated but it looks really rushed in the bathroom area. Stress cracks are already starting show really bad. Mold is already forming in bathtub above shower in 723.  Sink faucets could be moved in 180 degree, not tighten on.  
+- I could keep going on, but really don't want to scare people off from staying here. I can tell a lot of work has been done to get things updated but lots of areas were seemed rushed to meet deadlines.
+- WiFi sucks, really sucks, you have to...I worked in the hotel business during college, around 7 years. I know the in's and out's from cleaning the rooms, maintenance, to working the front desk. I'll start with the negatives and end with the positives of the hotel.Negatives:-Deposits are required up to $100 per room; most hotels only charge $50.  Make sure DO NOT use a Debit Card. - Water in both of our rooms (721 and 723) kept going from hot to cold. Really bad little or no water pressure- AC/Heater units have high pitch noise in 721 and 723 sounded like a semi truck- Really thin walls all around, could hear neighbors all throughout the night.- Ceiling creaks like no tomorrow if you have neighbors above you. - 2 out of 4 mornings we didn't get room service. Actually had to get rude after it happen the 2nd time. - Rooms are recently renovated but it looks really rushed in the bathroom area. Stress cracks are already starting show really bad. Mold is already forming in bathtub above shower in 723.  Sink faucets could be moved in 180 degree, not tighten on.  - I could keep going on, but really don't want to scare people off from staying here. I can tell a lot of work has been done to get things updated but lots of areas were seemed rushed to meet deadlines.- WiFi sucks, really sucks, you have to be outside your room to get a signal.- No free continental type breakfast. Positives:- Updated fixtures, furniture, beds, carpet, rooms painted, etc. - Bathrooms look great! Just rushed in some areas. (see above)- The room rates are to bad being so close to Disney.- Quick trip to the front, to their convenience store and pizza shop to met all your needs if you've been in the park all day.- Walgreen's and other eating establishments within 5 minutes walking. Final Thoughts:- Gosh, you gotta get that Wi-fi fixed that reaches all your rooms. After a long day at Disney, people want to rest and just enjoy getting on the internet. But that ain't going to happen with that crappy wireless connection. You all need to get this fixed asap. If you're able to update all your rooms, the front lobby, parking lot, etc...you can spend more money to fix your spotty wireless. - Your rooms look great but it seems like your AC/Heaters, Water heater, and plumbing weren't updated during your re-model. That's equivalent to fixing up a classic car without working and updating the motor and making it a more reliable driver. AC/Heaters, Water heater, and updating your plumbing is just as important, if not more important, than remodel all your rooms. I would rather stay in an outdated clean room knowing my AC/Heater and shower are working properly.- Keep up on your maids and make sure they clean those rooms! Again, we went 2 out of 4 mornings without clean towels and other cleaning services. My tips to the future guest:- My opinion can only reflect my 4 night stay there with family in rooms 721 and 723 on the first floors. Use my feedback combined with others before you turn away from this hotel. Make sure to look for detailed reviews from past guest. Don't go with the one liner hotel reviews like "this was a great spacious stay", or if they just have 1 or two reviews under their belt - Stay on the 2nd floor, the first floor rooms I could hear 2nd floor guest walking back and forth all throughout the night. It wasn't their fault, the 2nd floor flooring should had been tested and updated during their remodel. - I enjoyed their breakfast at the pizza place but it's really expensive. The most basic breakfast plate was around $11+ tax. - Make sure to review the room before you stay. Request you see your room first to make sure it meets your requirements. As a guest, you are entitled to this. I learnt my lesson by not checking Things to check- 1. Check wifi 2. Water Pressure (check hot/cold) 3. AC/Heater Unit 4. And room is clean to your standards. Would I stay here again? Probably not, there are other hotels around I'll check out first for the price I'm paying per night for this room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r559474792-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>559474792</t>
+  </si>
+  <si>
+    <t>02/09/2018</t>
+  </si>
+  <si>
+    <t>Fantastic value, incredible location</t>
+  </si>
+  <si>
+    <t>They have done a great job sprucing the place up and making a budget property seem like so much more. They have very spacious rooms, very clean, comfy beds and pillows, huge bathrooms. Maybe one of the only places I have stayed that offers 2-king rooms. The property is very clean, well maintained, and has a fantastic pool as well as a great lounge/bar/cafe in the front lobby. Best of all, the place is directly across from the parks with the main gate 1 block away which is crucial for many since mid day breaks can help you get the most out of your park experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>TAHManagement, Manager at The Anaheim Hotel, responded to this reviewResponded February 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2018</t>
+  </si>
+  <si>
+    <t>They have done a great job sprucing the place up and making a budget property seem like so much more. They have very spacious rooms, very clean, comfy beds and pillows, huge bathrooms. Maybe one of the only places I have stayed that offers 2-king rooms. The property is very clean, well maintained, and has a fantastic pool as well as a great lounge/bar/cafe in the front lobby. Best of all, the place is directly across from the parks with the main gate 1 block away which is crucial for many since mid day breaks can help you get the most out of your park experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r559323307-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>559323307</t>
+  </si>
+  <si>
+    <t>02/08/2018</t>
+  </si>
+  <si>
+    <t>Big room, nice lobby style, average room design</t>
+  </si>
+  <si>
+    <t>I stayed at The Anaheim Hotel during the first weekend of February 2018 after finding an excellent deal on the Executive King King Room on Booking.com. Sure, I could have paid a little less for a hotel off Harbor Boulevard, but I was attracted to the two-kings size of the room, which I've never seen at any other hotel. We had two adults and two children staying in the room, so the size was perfect for us.
+During past stays at the Castle Inn right next door, I've walked past this property and always thought "ewww" but was delightfully pleased to see they'd undergone a renovation that resulted in a really snazzy mid-century modern-inspired lobby. I love that style of decor and was very happy with the lobby, the building exteriors and the hotel grounds, which reminded me of a tropical Florida hotel in the 1960s.
+Unfortunately, that hip retro style did not extend to the guest rooms. Yes, they also underwent a renovation in recent times (from what I've seen in photos), but they in no way, shape or form coordinate with the mid-century style — other from a single piece of colorful artwork in the restroom. In fact, it made me think perhaps they got a really good deal on hotel furniture from another property that recently renovated and used those materials to furnish the Anaheim Hotel rooms. That's not to say the room was in any way...I stayed at The Anaheim Hotel during the first weekend of February 2018 after finding an excellent deal on the Executive King King Room on Booking.com. Sure, I could have paid a little less for a hotel off Harbor Boulevard, but I was attracted to the two-kings size of the room, which I've never seen at any other hotel. We had two adults and two children staying in the room, so the size was perfect for us.During past stays at the Castle Inn right next door, I've walked past this property and always thought "ewww" but was delightfully pleased to see they'd undergone a renovation that resulted in a really snazzy mid-century modern-inspired lobby. I love that style of decor and was very happy with the lobby, the building exteriors and the hotel grounds, which reminded me of a tropical Florida hotel in the 1960s.Unfortunately, that hip retro style did not extend to the guest rooms. Yes, they also underwent a renovation in recent times (from what I've seen in photos), but they in no way, shape or form coordinate with the mid-century style — other from a single piece of colorful artwork in the restroom. In fact, it made me think perhaps they got a really good deal on hotel furniture from another property that recently renovated and used those materials to furnish the Anaheim Hotel rooms. That's not to say the room was in any way uncomfortable or worse — it was quite comfortable, and I slept like a baby both nights. The disconnect in styles just really surprised me.Sure, I'll stay here again, if I ever need a king-king room. The location alone makes this hotel worth considering.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at The Anaheim Hotel during the first weekend of February 2018 after finding an excellent deal on the Executive King King Room on Booking.com. Sure, I could have paid a little less for a hotel off Harbor Boulevard, but I was attracted to the two-kings size of the room, which I've never seen at any other hotel. We had two adults and two children staying in the room, so the size was perfect for us.
+During past stays at the Castle Inn right next door, I've walked past this property and always thought "ewww" but was delightfully pleased to see they'd undergone a renovation that resulted in a really snazzy mid-century modern-inspired lobby. I love that style of decor and was very happy with the lobby, the building exteriors and the hotel grounds, which reminded me of a tropical Florida hotel in the 1960s.
+Unfortunately, that hip retro style did not extend to the guest rooms. Yes, they also underwent a renovation in recent times (from what I've seen in photos), but they in no way, shape or form coordinate with the mid-century style — other from a single piece of colorful artwork in the restroom. In fact, it made me think perhaps they got a really good deal on hotel furniture from another property that recently renovated and used those materials to furnish the Anaheim Hotel rooms. That's not to say the room was in any way...I stayed at The Anaheim Hotel during the first weekend of February 2018 after finding an excellent deal on the Executive King King Room on Booking.com. Sure, I could have paid a little less for a hotel off Harbor Boulevard, but I was attracted to the two-kings size of the room, which I've never seen at any other hotel. We had two adults and two children staying in the room, so the size was perfect for us.During past stays at the Castle Inn right next door, I've walked past this property and always thought "ewww" but was delightfully pleased to see they'd undergone a renovation that resulted in a really snazzy mid-century modern-inspired lobby. I love that style of decor and was very happy with the lobby, the building exteriors and the hotel grounds, which reminded me of a tropical Florida hotel in the 1960s.Unfortunately, that hip retro style did not extend to the guest rooms. Yes, they also underwent a renovation in recent times (from what I've seen in photos), but they in no way, shape or form coordinate with the mid-century style — other from a single piece of colorful artwork in the restroom. In fact, it made me think perhaps they got a really good deal on hotel furniture from another property that recently renovated and used those materials to furnish the Anaheim Hotel rooms. That's not to say the room was in any way uncomfortable or worse — it was quite comfortable, and I slept like a baby both nights. The disconnect in styles just really surprised me.Sure, I'll stay here again, if I ever need a king-king room. The location alone makes this hotel worth considering.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r558865170-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>558865170</t>
+  </si>
+  <si>
+    <t>02/06/2018</t>
+  </si>
+  <si>
+    <t>Mid Century Oasis</t>
+  </si>
+  <si>
+    <t>What a perfect oasis from the frenzy of Disneyland.  Walking distance to the park makes a midday break possible, and the huge pool is fabulous with 50's music and lounge chairs for your enjoyment.  My room was comfortable and quiet.  The updating that has been done is great - lots of comfortable and colorful mid century seating in the lobby plus a bar.  I had a great glass of wine.  The staff is welcoming and efficient.  The best value I've found.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r557448253-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>557448253</t>
+  </si>
+  <si>
+    <t>01/30/2018</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>Older renovated hotel. Beds were comfortable and our room had 2 queen size beds. Became tight with 4 suitcases but we were out of the room every day so that wasn't an issue. There was supposed to be full room service each day. We were there from the 2nd to the 11th January. We were there for 8 nights and for 5 of them each night when we returned the room hadn't been made up. The lady who was called each night became embarrassed that this was becoming routine. Reception were told each day that we had the privacy tag on our door, which wasn't the case on any day. They gave us a refund of 9% of the room cost when we left to compensate for this, but I was surprised that it had been raised every day and nothing had been done for the following days.MoreShow less</t>
+  </si>
+  <si>
+    <t>Older renovated hotel. Beds were comfortable and our room had 2 queen size beds. Became tight with 4 suitcases but we were out of the room every day so that wasn't an issue. There was supposed to be full room service each day. We were there from the 2nd to the 11th January. We were there for 8 nights and for 5 of them each night when we returned the room hadn't been made up. The lady who was called each night became embarrassed that this was becoming routine. Reception were told each day that we had the privacy tag on our door, which wasn't the case on any day. They gave us a refund of 9% of the room cost when we left to compensate for this, but I was surprised that it had been raised every day and nothing had been done for the following days.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r557426074-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>557426074</t>
+  </si>
+  <si>
+    <t>Best price and location for Disneyland</t>
+  </si>
+  <si>
+    <t>The staff is friendly and amazing. We always stay at this hotel during our family trips to Disneyland. The front gate is not a far walk, about a half mile, which is nothing when you're walking all day anyway.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r557402745-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>557402745</t>
+  </si>
+  <si>
+    <t>Our home away from home</t>
+  </si>
+  <si>
+    <t>We love this place and stay often. There are no bells or whistles, no crappy continental breakfasts, just a wonderful place to stay with nice people working and a good clean atmosphere. So close to the park.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r555298553-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>555298553</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Location </t>
+  </si>
+  <si>
+    <t>Stayed here for 4 days Jan 3 to Jan 6.  Nice a close to Disneyland entrance. Clean room, friendly staff. Beds were comfortable. Great gift shop on location. Was able to leave luggage secured away at the main lobby as flight wasn’t out until 7:50pm. So that was very convenient. MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert F, Manager at The Anaheim Hotel, responded to this reviewResponded January 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 days Jan 3 to Jan 6.  Nice a close to Disneyland entrance. Clean room, friendly staff. Beds were comfortable. Great gift shop on location. Was able to leave luggage secured away at the main lobby as flight wasn’t out until 7:50pm. So that was very convenient. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r554824593-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>554824593</t>
+  </si>
+  <si>
+    <t>01/19/2018</t>
+  </si>
+  <si>
+    <t>Great location! The Pizza Press was convenient to have there for when we got hungry late at night coming back from the parks. The bar was great too for when the adults needed a break. We brought board games and tablets for the kiddos to lounge around in the lobby with us. It was perfect!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Steve B, Manager at The Anaheim Hotel, responded to this reviewResponded January 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2018</t>
+  </si>
+  <si>
+    <t>Great location! The Pizza Press was convenient to have there for when we got hungry late at night coming back from the parks. The bar was great too for when the adults needed a break. We brought board games and tablets for the kiddos to lounge around in the lobby with us. It was perfect!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r553666153-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>553666153</t>
+  </si>
+  <si>
+    <t>01/13/2018</t>
+  </si>
+  <si>
+    <t>First time stay...highly recommend!</t>
+  </si>
+  <si>
+    <t>My family and I love visiting Disneyland and California Adventure.  Over the years we have stayed at so many different hotels in the area.  This is our very first time staying at the Anaheim Hotel.  We were pleasantly surprised!  This hotel is so convenient!  Easy walking (just across the street!) from where you walk into Disneyland and California Adventure.  Large rooms and a wonderful Olympic sized outdoor pool that felt so great after walking all day at the parks.  I highly recommend this hotel to everyone visiting Disneyland and California Adventure.MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert F, Manager at The Anaheim Hotel, responded to this reviewResponded January 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2018</t>
+  </si>
+  <si>
+    <t>My family and I love visiting Disneyland and California Adventure.  Over the years we have stayed at so many different hotels in the area.  This is our very first time staying at the Anaheim Hotel.  We were pleasantly surprised!  This hotel is so convenient!  Easy walking (just across the street!) from where you walk into Disneyland and California Adventure.  Large rooms and a wonderful Olympic sized outdoor pool that felt so great after walking all day at the parks.  I highly recommend this hotel to everyone visiting Disneyland and California Adventure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r553367300-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>553367300</t>
+  </si>
+  <si>
+    <t>01/12/2018</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>It is hard to find a room when you are traveling with your now "adult" children (18 and 20). A regular room with two queens is a little tight and a "family" room with bunk beds just doesn't fit a 6'3 boy/man. This hotel offers a family room that has a King and two queens! AND at a great price! I would suggest this hotel to anyone traveling with adult kids or just a group with 6 adults. Also the location is right across the street from Disneyland!MoreShow less</t>
+  </si>
+  <si>
+    <t>Alex R, Manager at The Anaheim Hotel, responded to this reviewResponded January 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2018</t>
+  </si>
+  <si>
+    <t>It is hard to find a room when you are traveling with your now "adult" children (18 and 20). A regular room with two queens is a little tight and a "family" room with bunk beds just doesn't fit a 6'3 boy/man. This hotel offers a family room that has a King and two queens! AND at a great price! I would suggest this hotel to anyone traveling with adult kids or just a group with 6 adults. Also the location is right across the street from Disneyland!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r553285849-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>553285849</t>
+  </si>
+  <si>
+    <t>01/11/2018</t>
+  </si>
+  <si>
+    <t>Ok hotel room</t>
+  </si>
+  <si>
+    <t>I paid for the biggest room they had it was the family suit and I got to tell you it was smaller than advertised the doors barley closed and the fridge was in the living room let alone none of the switches for lights were near the lights making you have to look around for the switches. Can’t watch tv with the remote they give you called the “clean remote” has maybe 5 buttons on it the only good thing about this place was the beds they were comfortable and seemed clean I wouldn’t ever stay here again especially for the price I paid 100% not worth it was expecting way more, also was told was a Park veiw all I saw out the window was a tree and a building infront of me...MoreShow less</t>
+  </si>
+  <si>
+    <t>I paid for the biggest room they had it was the family suit and I got to tell you it was smaller than advertised the doors barley closed and the fridge was in the living room let alone none of the switches for lights were near the lights making you have to look around for the switches. Can’t watch tv with the remote they give you called the “clean remote” has maybe 5 buttons on it the only good thing about this place was the beds they were comfortable and seemed clean I wouldn’t ever stay here again especially for the price I paid 100% not worth it was expecting way more, also was told was a Park veiw all I saw out the window was a tree and a building infront of me...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r553279672-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>553279672</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>Clean, comfy, good service, we were able to walk to Disney land. Only down side was trying to get food at night at the pizza place in the lobby took over an hour. Kids were not happy. But the food was good. MoreShow less</t>
+  </si>
+  <si>
+    <t>Clean, comfy, good service, we were able to walk to Disney land. Only down side was trying to get food at night at the pizza place in the lobby took over an hour. Kids were not happy. But the food was good. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r551867606-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>551867606</t>
+  </si>
+  <si>
+    <t>01/05/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleasantly surprised! </t>
+  </si>
+  <si>
+    <t>It’s always a game for us to see how last minute we can get a great room for a great price. It didn’t look like we’d be able to do it given that most hotels around Disneyland are booked so far in advance. After our first night, we decided that we loved the location and retro vibe of the Anaheim. It was under renovations, and the lobby looks fantastic. The front desk staff was very friendly and helpful; they held our luggage for us even though we arrived hours before check in. The rooms weren’t fancy, but it was quiet and the beds were comfortable. It was so close that we were able to go back and forth to the park without losing much time. The only downside was the shower never seemed to heat up, but I’d call that a fluke due to the renovations and would definitely not let that deter me from staying again. We will definitely stay here when we come back next year. I love a good game of hotel chicken, and this one ended pleasantly! MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>It’s always a game for us to see how last minute we can get a great room for a great price. It didn’t look like we’d be able to do it given that most hotels around Disneyland are booked so far in advance. After our first night, we decided that we loved the location and retro vibe of the Anaheim. It was under renovations, and the lobby looks fantastic. The front desk staff was very friendly and helpful; they held our luggage for us even though we arrived hours before check in. The rooms weren’t fancy, but it was quiet and the beds were comfortable. It was so close that we were able to go back and forth to the park without losing much time. The only downside was the shower never seemed to heat up, but I’d call that a fluke due to the renovations and would definitely not let that deter me from staying again. We will definitely stay here when we come back next year. I love a good game of hotel chicken, and this one ended pleasantly! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r551650376-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>551650376</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t>Delightful Disney Stay</t>
+  </si>
+  <si>
+    <t>At one time, it was called the Anaheim Plaza.  Now it has a new name – The Anaheim Hotel.  This is a good bit of information because my GPS was listed with the old name even though I updated the device a week before we left.   It used to be across the street from the Disneyland parking lot and it was easy to take a short cut across the lot.  But since Disney built the California Adventure and Downtown Disney and the hotel found itself near three wonderful attractions.  The reason we picked the Anaheim Hotel was solely based on Rate and Location.  As a bonus, it has been recently renovated.  And we would stay there again.
+We checked in at about noon, a little earlier than we were supposed to but they were very accommodating with our accommodation.  We asked for a handicapped room and they gave us a nice room that was way in the back of the motel grounds.  It is kind of strange to place a person with mobility issues in a spot that is further away than others but it was okay.
+It is called a hotel but it actually works more like a motel.  Although you can’t park right by your room there is parking at the front and the side of the motel for lots of vehicles.  There are no common hallways like a hotel but separate apartment style units.  They have a...At one time, it was called the Anaheim Plaza.  Now it has a new name – The Anaheim Hotel.  This is a good bit of information because my GPS was listed with the old name even though I updated the device a week before we left.   It used to be across the street from the Disneyland parking lot and it was easy to take a short cut across the lot.  But since Disney built the California Adventure and Downtown Disney and the hotel found itself near three wonderful attractions.  The reason we picked the Anaheim Hotel was solely based on Rate and Location.  As a bonus, it has been recently renovated.  And we would stay there again.We checked in at about noon, a little earlier than we were supposed to but they were very accommodating with our accommodation.  We asked for a handicapped room and they gave us a nice room that was way in the back of the motel grounds.  It is kind of strange to place a person with mobility issues in a spot that is further away than others but it was okay.It is called a hotel but it actually works more like a motel.  Although you can’t park right by your room there is parking at the front and the side of the motel for lots of vehicles.  There are no common hallways like a hotel but separate apartment style units.  They have a rather large pool with a rather small hot tub, but frankly it was just before Christmas and too cold to really use them.  The front desk was very nice and very helpful.  I made our reservations on line but there was a slip up and they didn’t get a visa number to hold the room.  It didn’t matter, they worked it out and charged us the same as they originally quoted.So, we settled in, it felt a bit like stepping back in town with the drab greys and browns.  However, they had good television monitor, a fridge, nice bathroom area and good shower.  It is about a 15-minute walk from the Hotel to the main gates of Disneyland.  Remember when you are walking there it is about a block and a half to the crosswalk, then about another block through the bus stands to get to the security gates for the park. Then if you haven’t bought your tickets to the parks already it could be more time to get then.  Then another 20 minutes or so to get into California Adventure or Disneyland.  In the neighbourhood, there are a bunch of restaurants for all kinds of budgets.  A CVS and a Walgreens are about a block away, and there are lots of places to buy souvenirs.  We had one negative experience when our neighbours came home about 12:30am and elected to party until 1:30am.  We called the front desk but nothing happened.   In the morning we asked the front desk in person what to do with noisy neighbours and they said something must have went wrong because security should have stopped them.The last little bit was about using the concierge service.  We needed to be at the airport SNA by 5:45am so we arrange for a wake up call at 5am and the concierge service arranged transportation for us.  They were really helpful and knowledgeable, re-assuring and efficient.  All was good.There is a really good pizza place here (The Pizza Press) but that is another review.MoreShow less</t>
+  </si>
+  <si>
+    <t>At one time, it was called the Anaheim Plaza.  Now it has a new name – The Anaheim Hotel.  This is a good bit of information because my GPS was listed with the old name even though I updated the device a week before we left.   It used to be across the street from the Disneyland parking lot and it was easy to take a short cut across the lot.  But since Disney built the California Adventure and Downtown Disney and the hotel found itself near three wonderful attractions.  The reason we picked the Anaheim Hotel was solely based on Rate and Location.  As a bonus, it has been recently renovated.  And we would stay there again.
+We checked in at about noon, a little earlier than we were supposed to but they were very accommodating with our accommodation.  We asked for a handicapped room and they gave us a nice room that was way in the back of the motel grounds.  It is kind of strange to place a person with mobility issues in a spot that is further away than others but it was okay.
+It is called a hotel but it actually works more like a motel.  Although you can’t park right by your room there is parking at the front and the side of the motel for lots of vehicles.  There are no common hallways like a hotel but separate apartment style units.  They have a...At one time, it was called the Anaheim Plaza.  Now it has a new name – The Anaheim Hotel.  This is a good bit of information because my GPS was listed with the old name even though I updated the device a week before we left.   It used to be across the street from the Disneyland parking lot and it was easy to take a short cut across the lot.  But since Disney built the California Adventure and Downtown Disney and the hotel found itself near three wonderful attractions.  The reason we picked the Anaheim Hotel was solely based on Rate and Location.  As a bonus, it has been recently renovated.  And we would stay there again.We checked in at about noon, a little earlier than we were supposed to but they were very accommodating with our accommodation.  We asked for a handicapped room and they gave us a nice room that was way in the back of the motel grounds.  It is kind of strange to place a person with mobility issues in a spot that is further away than others but it was okay.It is called a hotel but it actually works more like a motel.  Although you can’t park right by your room there is parking at the front and the side of the motel for lots of vehicles.  There are no common hallways like a hotel but separate apartment style units.  They have a rather large pool with a rather small hot tub, but frankly it was just before Christmas and too cold to really use them.  The front desk was very nice and very helpful.  I made our reservations on line but there was a slip up and they didn’t get a visa number to hold the room.  It didn’t matter, they worked it out and charged us the same as they originally quoted.So, we settled in, it felt a bit like stepping back in town with the drab greys and browns.  However, they had good television monitor, a fridge, nice bathroom area and good shower.  It is about a 15-minute walk from the Hotel to the main gates of Disneyland.  Remember when you are walking there it is about a block and a half to the crosswalk, then about another block through the bus stands to get to the security gates for the park. Then if you haven’t bought your tickets to the parks already it could be more time to get then.  Then another 20 minutes or so to get into California Adventure or Disneyland.  In the neighbourhood, there are a bunch of restaurants for all kinds of budgets.  A CVS and a Walgreens are about a block away, and there are lots of places to buy souvenirs.  We had one negative experience when our neighbours came home about 12:30am and elected to party until 1:30am.  We called the front desk but nothing happened.   In the morning we asked the front desk in person what to do with noisy neighbours and they said something must have went wrong because security should have stopped them.The last little bit was about using the concierge service.  We needed to be at the airport SNA by 5:45am so we arrange for a wake up call at 5am and the concierge service arranged transportation for us.  They were really helpful and knowledgeable, re-assuring and efficient.  All was good.There is a really good pizza place here (The Pizza Press) but that is another review.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r551305664-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>551305664</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mid century gem with potential </t>
+  </si>
+  <si>
+    <t>As a late wedding present we got a New Year’s trip to Disneyland. Obviously we did not get to chose the hotel. Immediately got excited when we found about the location but got scared when we read all the bad reviews. Our experience was way better than anticipated. The lobby is nicely decorated with a mid century vibe, no doubt it was recently renovated. The personnel is very friendly and nice. Definitely this hotel was beautiful back in the day. As opportunity areas: The rooms are desperately crying for a renovation (specially to get rid off that ugly-stained carpet), but have a lot of potential. Ours had a small private patio with plants and furniture. The room smelled funny (not bad) I guess it is the humidity due to the old AC. The linens are cheap and the bath amenities are ok. All of the above can be forgiven if you understand and want to believe they are under a whole renovation plan. What’s really bad is the house keeping. They do not clean properly, not pay attention to detail (left us with no towels one day). Overall, if you are not too picky and just crashing while spending the whole day at Disney, this is an ok hotel with the potential to become a good hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>As a late wedding present we got a New Year’s trip to Disneyland. Obviously we did not get to chose the hotel. Immediately got excited when we found about the location but got scared when we read all the bad reviews. Our experience was way better than anticipated. The lobby is nicely decorated with a mid century vibe, no doubt it was recently renovated. The personnel is very friendly and nice. Definitely this hotel was beautiful back in the day. As opportunity areas: The rooms are desperately crying for a renovation (specially to get rid off that ugly-stained carpet), but have a lot of potential. Ours had a small private patio with plants and furniture. The room smelled funny (not bad) I guess it is the humidity due to the old AC. The linens are cheap and the bath amenities are ok. All of the above can be forgiven if you understand and want to believe they are under a whole renovation plan. What’s really bad is the house keeping. They do not clean properly, not pay attention to detail (left us with no towels one day). Overall, if you are not too picky and just crashing while spending the whole day at Disney, this is an ok hotel with the potential to become a good hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r549074499-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>549074499</t>
+  </si>
+  <si>
+    <t>12/24/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Close to Disneyland </t>
+  </si>
+  <si>
+    <t>This was our first stay here.  We were able to check in a bit early which was nice.  The front desk staff was friendly.  I think we were in one of the renovated rooms.  I like being on the second floor but when I saw that some of the ground floor units had private patios I think that would be something to try in the future.  Our building had stairs on one end and a ramp on the other so we could just roll our suitcases up.  We didn’t use the pool but it was a good size.  There is some green space as well as at least one seating area to hang out outside.  We liked the pizza place that in attached to the lobby area.  The exterior was more updated than many of the pictures online show.  We have stayed at a number of different hotels in the area and depending on price will certainly consider staying again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert F, Manager at The Anaheim Hotel, responded to this reviewResponded January 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2018</t>
+  </si>
+  <si>
+    <t>This was our first stay here.  We were able to check in a bit early which was nice.  The front desk staff was friendly.  I think we were in one of the renovated rooms.  I like being on the second floor but when I saw that some of the ground floor units had private patios I think that would be something to try in the future.  Our building had stairs on one end and a ramp on the other so we could just roll our suitcases up.  We didn’t use the pool but it was a good size.  There is some green space as well as at least one seating area to hang out outside.  We liked the pizza place that in attached to the lobby area.  The exterior was more updated than many of the pictures online show.  We have stayed at a number of different hotels in the area and depending on price will certainly consider staying again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r547209034-The_Anaheim_Hotel-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>547209034</t>
+  </si>
+  <si>
+    <t>12/14/2017</t>
+  </si>
+  <si>
+    <t>No Hot Water and Taxes on Parking</t>
+  </si>
+  <si>
+    <t>This was our first experience at a hotel where while taking a nice hot shower, the water suddenly became freezing cold, so whoever is interested in taking “cold showers”, this is the place to stay at.Also, I’ve never stayed at a hotel where they charge taxes on parking.  In addition to the taxes, we were charged a Parking TID Assessment?Other than that, hotel was okay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert F, Manager at The Anaheim Hotel, responded to this reviewResponded December 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2017</t>
+  </si>
+  <si>
+    <t>This was our first experience at a hotel where while taking a nice hot shower, the water suddenly became freezing cold, so whoever is interested in taking “cold showers”, this is the place to stay at.Also, I’ve never stayed at a hotel where they charge taxes on parking.  In addition to the taxes, we were charged a Parking TID Assessment?Other than that, hotel was okay!More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2061,4384 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" t="s">
+        <v>113</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" t="s">
+        <v>124</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>77</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" t="s">
+        <v>128</v>
+      </c>
+      <c r="L15" t="s">
+        <v>129</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>130</v>
+      </c>
+      <c r="O15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>132</v>
+      </c>
+      <c r="J16" t="s">
+        <v>133</v>
+      </c>
+      <c r="K16" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" t="s">
+        <v>135</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>77</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17" t="s">
+        <v>140</v>
+      </c>
+      <c r="L17" t="s">
+        <v>141</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>77</v>
+      </c>
+      <c r="O17" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" t="s">
+        <v>144</v>
+      </c>
+      <c r="K18" t="s">
+        <v>145</v>
+      </c>
+      <c r="L18" t="s">
+        <v>146</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>77</v>
+      </c>
+      <c r="O18" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" t="s">
+        <v>151</v>
+      </c>
+      <c r="L19" t="s">
+        <v>152</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>77</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>155</v>
+      </c>
+      <c r="J20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" t="s">
+        <v>157</v>
+      </c>
+      <c r="L20" t="s">
+        <v>158</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>77</v>
+      </c>
+      <c r="O20" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>159</v>
+      </c>
+      <c r="X20" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>163</v>
+      </c>
+      <c r="J21" t="s">
+        <v>164</v>
+      </c>
+      <c r="K21" t="s">
+        <v>165</v>
+      </c>
+      <c r="L21" t="s">
+        <v>166</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>77</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>168</v>
+      </c>
+      <c r="J22" t="s">
+        <v>169</v>
+      </c>
+      <c r="K22" t="s">
+        <v>170</v>
+      </c>
+      <c r="L22" t="s">
+        <v>171</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>77</v>
+      </c>
+      <c r="O22" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>173</v>
+      </c>
+      <c r="J23" t="s">
+        <v>174</v>
+      </c>
+      <c r="K23" t="s">
+        <v>175</v>
+      </c>
+      <c r="L23" t="s">
+        <v>176</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>102</v>
+      </c>
+      <c r="O23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>177</v>
+      </c>
+      <c r="X23" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>181</v>
+      </c>
+      <c r="J24" t="s">
+        <v>182</v>
+      </c>
+      <c r="K24" t="s">
+        <v>183</v>
+      </c>
+      <c r="L24" t="s">
+        <v>184</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>102</v>
+      </c>
+      <c r="O24" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>185</v>
+      </c>
+      <c r="X24" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>188</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>189</v>
+      </c>
+      <c r="J25" t="s">
+        <v>190</v>
+      </c>
+      <c r="K25" t="s">
+        <v>191</v>
+      </c>
+      <c r="L25" t="s">
+        <v>192</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>102</v>
+      </c>
+      <c r="O25" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>193</v>
+      </c>
+      <c r="X25" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>197</v>
+      </c>
+      <c r="J26" t="s">
+        <v>198</v>
+      </c>
+      <c r="K26" t="s">
+        <v>199</v>
+      </c>
+      <c r="L26" t="s">
+        <v>200</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>102</v>
+      </c>
+      <c r="O26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>201</v>
+      </c>
+      <c r="X26" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>204</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>205</v>
+      </c>
+      <c r="J27" t="s">
+        <v>206</v>
+      </c>
+      <c r="K27" t="s">
+        <v>207</v>
+      </c>
+      <c r="L27" t="s">
+        <v>208</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>209</v>
+      </c>
+      <c r="O27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>201</v>
+      </c>
+      <c r="X27" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>212</v>
+      </c>
+      <c r="J28" t="s">
+        <v>213</v>
+      </c>
+      <c r="K28" t="s">
+        <v>214</v>
+      </c>
+      <c r="L28" t="s">
+        <v>215</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>102</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>201</v>
+      </c>
+      <c r="X28" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>217</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>218</v>
+      </c>
+      <c r="J29" t="s">
+        <v>219</v>
+      </c>
+      <c r="K29" t="s">
+        <v>220</v>
+      </c>
+      <c r="L29" t="s">
+        <v>221</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>102</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>223</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>224</v>
+      </c>
+      <c r="J30" t="s">
+        <v>219</v>
+      </c>
+      <c r="K30" t="s">
+        <v>225</v>
+      </c>
+      <c r="L30" t="s">
+        <v>226</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>102</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>228</v>
+      </c>
+      <c r="J31" t="s">
+        <v>229</v>
+      </c>
+      <c r="K31" t="s">
+        <v>230</v>
+      </c>
+      <c r="L31" t="s">
+        <v>231</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>102</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>233</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>234</v>
+      </c>
+      <c r="J32" t="s">
+        <v>235</v>
+      </c>
+      <c r="K32" t="s">
+        <v>236</v>
+      </c>
+      <c r="L32" t="s">
+        <v>237</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>102</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>239</v>
+      </c>
+      <c r="J33" t="s">
+        <v>240</v>
+      </c>
+      <c r="K33" t="s">
+        <v>241</v>
+      </c>
+      <c r="L33" t="s">
+        <v>242</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>102</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>243</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>244</v>
+      </c>
+      <c r="J34" t="s">
+        <v>240</v>
+      </c>
+      <c r="K34" t="s">
+        <v>245</v>
+      </c>
+      <c r="L34" t="s">
+        <v>246</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>102</v>
+      </c>
+      <c r="O34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>248</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>249</v>
+      </c>
+      <c r="J35" t="s">
+        <v>250</v>
+      </c>
+      <c r="K35" t="s">
+        <v>36</v>
+      </c>
+      <c r="L35" t="s">
+        <v>251</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>252</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>253</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>254</v>
+      </c>
+      <c r="J36" t="s">
+        <v>255</v>
+      </c>
+      <c r="K36" t="s">
+        <v>256</v>
+      </c>
+      <c r="L36" t="s">
+        <v>257</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>252</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>259</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>260</v>
+      </c>
+      <c r="J37" t="s">
+        <v>261</v>
+      </c>
+      <c r="K37" t="s">
+        <v>262</v>
+      </c>
+      <c r="L37" t="s">
+        <v>263</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>102</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>265</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>266</v>
+      </c>
+      <c r="J38" t="s">
+        <v>267</v>
+      </c>
+      <c r="K38" t="s">
+        <v>268</v>
+      </c>
+      <c r="L38" t="s">
+        <v>269</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>252</v>
+      </c>
+      <c r="O38" t="s">
+        <v>59</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>270</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>271</v>
+      </c>
+      <c r="J39" t="s">
+        <v>267</v>
+      </c>
+      <c r="K39" t="s">
+        <v>272</v>
+      </c>
+      <c r="L39" t="s">
+        <v>273</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>274</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>275</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>276</v>
+      </c>
+      <c r="J40" t="s">
+        <v>277</v>
+      </c>
+      <c r="K40" t="s">
+        <v>278</v>
+      </c>
+      <c r="L40" t="s">
+        <v>279</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>252</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>280</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>281</v>
+      </c>
+      <c r="J41" t="s">
+        <v>282</v>
+      </c>
+      <c r="K41" t="s">
+        <v>283</v>
+      </c>
+      <c r="L41" t="s">
+        <v>284</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>252</v>
+      </c>
+      <c r="O41" t="s">
+        <v>285</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>287</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>288</v>
+      </c>
+      <c r="J42" t="s">
+        <v>289</v>
+      </c>
+      <c r="K42" t="s">
+        <v>290</v>
+      </c>
+      <c r="L42" t="s">
+        <v>291</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>252</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>293</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>294</v>
+      </c>
+      <c r="J43" t="s">
+        <v>289</v>
+      </c>
+      <c r="K43" t="s">
+        <v>295</v>
+      </c>
+      <c r="L43" t="s">
+        <v>296</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>252</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>297</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>298</v>
+      </c>
+      <c r="J44" t="s">
+        <v>299</v>
+      </c>
+      <c r="K44" t="s">
+        <v>300</v>
+      </c>
+      <c r="L44" t="s">
+        <v>301</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>252</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>302</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>303</v>
+      </c>
+      <c r="J45" t="s">
+        <v>299</v>
+      </c>
+      <c r="K45" t="s">
+        <v>304</v>
+      </c>
+      <c r="L45" t="s">
+        <v>305</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>252</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>306</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>307</v>
+      </c>
+      <c r="J46" t="s">
+        <v>308</v>
+      </c>
+      <c r="K46" t="s">
+        <v>309</v>
+      </c>
+      <c r="L46" t="s">
+        <v>310</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>252</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>311</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>312</v>
+      </c>
+      <c r="J47" t="s">
+        <v>313</v>
+      </c>
+      <c r="K47" t="s">
+        <v>314</v>
+      </c>
+      <c r="L47" t="s">
+        <v>315</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>274</v>
+      </c>
+      <c r="O47" t="s">
+        <v>66</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>316</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>317</v>
+      </c>
+      <c r="J48" t="s">
+        <v>318</v>
+      </c>
+      <c r="K48" t="s">
+        <v>319</v>
+      </c>
+      <c r="L48" t="s">
+        <v>320</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>252</v>
+      </c>
+      <c r="O48" t="s">
+        <v>66</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>321</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>322</v>
+      </c>
+      <c r="J49" t="s">
+        <v>323</v>
+      </c>
+      <c r="K49" t="s">
+        <v>324</v>
+      </c>
+      <c r="L49" t="s">
+        <v>325</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>252</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>327</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>328</v>
+      </c>
+      <c r="J50" t="s">
+        <v>329</v>
+      </c>
+      <c r="K50" t="s">
+        <v>330</v>
+      </c>
+      <c r="L50" t="s">
+        <v>331</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>332</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>333</v>
+      </c>
+      <c r="J51" t="s">
+        <v>334</v>
+      </c>
+      <c r="K51" t="s">
+        <v>335</v>
+      </c>
+      <c r="L51" t="s">
+        <v>336</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>274</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>337</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>338</v>
+      </c>
+      <c r="J52" t="s">
+        <v>339</v>
+      </c>
+      <c r="K52" t="s">
+        <v>340</v>
+      </c>
+      <c r="L52" t="s">
+        <v>341</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>274</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>342</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>343</v>
+      </c>
+      <c r="J53" t="s">
+        <v>344</v>
+      </c>
+      <c r="K53" t="s">
+        <v>345</v>
+      </c>
+      <c r="L53" t="s">
+        <v>346</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>347</v>
+      </c>
+      <c r="O53" t="s">
+        <v>59</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>349</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>350</v>
+      </c>
+      <c r="J54" t="s">
+        <v>344</v>
+      </c>
+      <c r="K54" t="s">
+        <v>351</v>
+      </c>
+      <c r="L54" t="s">
+        <v>352</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>274</v>
+      </c>
+      <c r="O54" t="s">
+        <v>66</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>353</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>354</v>
+      </c>
+      <c r="J55" t="s">
+        <v>355</v>
+      </c>
+      <c r="K55" t="s">
+        <v>95</v>
+      </c>
+      <c r="L55" t="s">
+        <v>356</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>274</v>
+      </c>
+      <c r="O55" t="s">
+        <v>285</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>357</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>358</v>
+      </c>
+      <c r="J56" t="s">
+        <v>359</v>
+      </c>
+      <c r="K56" t="s">
+        <v>360</v>
+      </c>
+      <c r="L56" t="s">
+        <v>361</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>274</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>362</v>
+      </c>
+      <c r="X56" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>365</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>366</v>
+      </c>
+      <c r="J57" t="s">
+        <v>359</v>
+      </c>
+      <c r="K57" t="s">
+        <v>367</v>
+      </c>
+      <c r="L57" t="s">
+        <v>368</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>274</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>362</v>
+      </c>
+      <c r="X57" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>370</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>371</v>
+      </c>
+      <c r="J58" t="s">
+        <v>372</v>
+      </c>
+      <c r="K58" t="s">
+        <v>373</v>
+      </c>
+      <c r="L58" t="s">
+        <v>374</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>274</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>376</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>377</v>
+      </c>
+      <c r="J59" t="s">
+        <v>378</v>
+      </c>
+      <c r="K59" t="s">
+        <v>379</v>
+      </c>
+      <c r="L59" t="s">
+        <v>380</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>274</v>
+      </c>
+      <c r="O59" t="s">
+        <v>59</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>381</v>
+      </c>
+      <c r="X59" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>384</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>385</v>
+      </c>
+      <c r="J60" t="s">
+        <v>386</v>
+      </c>
+      <c r="K60" t="s">
+        <v>387</v>
+      </c>
+      <c r="L60" t="s">
+        <v>388</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>274</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>390</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>391</v>
+      </c>
+      <c r="J61" t="s">
+        <v>392</v>
+      </c>
+      <c r="K61" t="s">
+        <v>393</v>
+      </c>
+      <c r="L61" t="s">
+        <v>394</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>130</v>
+      </c>
+      <c r="O61" t="s">
+        <v>71</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>395</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>396</v>
+      </c>
+      <c r="J62" t="s">
+        <v>397</v>
+      </c>
+      <c r="K62" t="s">
+        <v>398</v>
+      </c>
+      <c r="L62" t="s">
+        <v>399</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>130</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>401</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>402</v>
+      </c>
+      <c r="J63" t="s">
+        <v>397</v>
+      </c>
+      <c r="K63" t="s">
+        <v>403</v>
+      </c>
+      <c r="L63" t="s">
+        <v>404</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>130</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>405</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>406</v>
+      </c>
+      <c r="J64" t="s">
+        <v>397</v>
+      </c>
+      <c r="K64" t="s">
+        <v>407</v>
+      </c>
+      <c r="L64" t="s">
+        <v>408</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>130</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>409</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>410</v>
+      </c>
+      <c r="J65" t="s">
+        <v>411</v>
+      </c>
+      <c r="K65" t="s">
+        <v>412</v>
+      </c>
+      <c r="L65" t="s">
+        <v>413</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>130</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>414</v>
+      </c>
+      <c r="X65" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>417</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>418</v>
+      </c>
+      <c r="J66" t="s">
+        <v>419</v>
+      </c>
+      <c r="K66" t="s">
+        <v>112</v>
+      </c>
+      <c r="L66" t="s">
+        <v>420</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>421</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>422</v>
+      </c>
+      <c r="X66" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>425</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>426</v>
+      </c>
+      <c r="J67" t="s">
+        <v>427</v>
+      </c>
+      <c r="K67" t="s">
+        <v>428</v>
+      </c>
+      <c r="L67" t="s">
+        <v>429</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>130</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>430</v>
+      </c>
+      <c r="X67" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>433</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>434</v>
+      </c>
+      <c r="J68" t="s">
+        <v>435</v>
+      </c>
+      <c r="K68" t="s">
+        <v>436</v>
+      </c>
+      <c r="L68" t="s">
+        <v>437</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>421</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>438</v>
+      </c>
+      <c r="X68" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>441</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>442</v>
+      </c>
+      <c r="J69" t="s">
+        <v>443</v>
+      </c>
+      <c r="K69" t="s">
+        <v>444</v>
+      </c>
+      <c r="L69" t="s">
+        <v>445</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>130</v>
+      </c>
+      <c r="O69" t="s">
+        <v>59</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>447</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>448</v>
+      </c>
+      <c r="J70" t="s">
+        <v>443</v>
+      </c>
+      <c r="K70" t="s">
+        <v>449</v>
+      </c>
+      <c r="L70" t="s">
+        <v>450</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>421</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>438</v>
+      </c>
+      <c r="X70" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>452</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>453</v>
+      </c>
+      <c r="J71" t="s">
+        <v>454</v>
+      </c>
+      <c r="K71" t="s">
+        <v>455</v>
+      </c>
+      <c r="L71" t="s">
+        <v>456</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>457</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>459</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>460</v>
+      </c>
+      <c r="J72" t="s">
+        <v>461</v>
+      </c>
+      <c r="K72" t="s">
+        <v>462</v>
+      </c>
+      <c r="L72" t="s">
+        <v>463</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>421</v>
+      </c>
+      <c r="O72" t="s">
+        <v>66</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>465</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>466</v>
+      </c>
+      <c r="J73" t="s">
+        <v>467</v>
+      </c>
+      <c r="K73" t="s">
+        <v>468</v>
+      </c>
+      <c r="L73" t="s">
+        <v>469</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>130</v>
+      </c>
+      <c r="O73" t="s">
+        <v>66</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>471</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>472</v>
+      </c>
+      <c r="J74" t="s">
+        <v>473</v>
+      </c>
+      <c r="K74" t="s">
+        <v>474</v>
+      </c>
+      <c r="L74" t="s">
+        <v>475</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>476</v>
+      </c>
+      <c r="X74" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>5751</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>479</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>480</v>
+      </c>
+      <c r="J75" t="s">
+        <v>481</v>
+      </c>
+      <c r="K75" t="s">
+        <v>482</v>
+      </c>
+      <c r="L75" t="s">
+        <v>483</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>421</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>484</v>
+      </c>
+      <c r="X75" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>486</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_748.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_748.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="561">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>Scott N</t>
   </si>
   <si>
     <t>07/12/2018</t>
@@ -191,6 +194,9 @@
 We ate breakfast at the Pizza Press (yes, breakfast).  It was very good and the staff there was great too.  We'd love...We stayed at this hotel for 2 nights and chose it for it's proximity to Disneyland.  It was a surprise to see that they offered rooms with two king beds.  As a family with 2 older children, this worked out great to have the extra space.Our room was in a 400 building near the back.  There was no noise except for the occasional excited child running down the corridor outside the room.  Typical vacation area noise and not unexpected.  The room itself was just ok.  Other than the two kings, it was nothing special.  It seemed dated so maybe we didn't get one of the updated rooms that others mentioned.  Walls are also thin and even though we were on the 2nd floor we could hear our neighbors child running around in his room early in the morning.  Bring ear plugs.We only had one issue that needed staff attention on our 2nd day.  Even though we used 4 towels for showers, we only had 2 bath towels replenished in our room and no extra shampoo/conditioner/soap.  This was corrected by a visit to the front desk on our way out for the evening.The staff at this hotel was very pleasant and helpful.  Check-in was easy and as I mentioned, they dealt with our minor issue quickly.We ate breakfast at the Pizza Press (yes, breakfast).  It was very good and the staff there was great too.  We'd love to go back and try the pizza sometime.Overall, we loved the location and easy access to Disneyland and the two king beds.  It was perfect for our Disneyland visit as we really only needed a place to clean up and sleep.  I'd definitely consider this location again on our next visit to Disneyland.More</t>
   </si>
   <si>
+    <t>jessica_hamaker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r593797537-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -206,6 +212,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>ricki475</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r593666215-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>braintoad</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r591766784-The_Anaheim_Hotel-Anaheim_California.html</t>
@@ -247,6 +259,9 @@
     <t>I watched this hotel goes through its renovations throughout other trips and decided to stay here this trip as it was done, the Pizza Press being close (my favorite place to eat off Disneyland property) and it's location to the park.  It was also cheaper than my usual hotel, as well as offering a better AP discount than that hotel.
 It was a good stay.  I arrived early and didn't expect my room to be ready, and they initially said it wasn't.  But offered my a single king sized room that was ready, which was fine as I was alone.  The lobby is very nice, feels very much like a proper hotel rather than a motel.  A staff member greets you whenever you walk by, which is nice.  The grounds are lovely and the vibe from lobby carries on to out there.  My room was the on the second floor in one of the back buildings, the ones without a balcony or patio, which was fine by me but something I'd like to experience.  I was very thankful they had a ramp, which I discovered after lugging my bags up the stairs.
 The room felt large, but it could be because of the single bed in the center, but it was also a king so not a small bed.  It was clean and looked fine.  The layout of the room was a bit odd, with the sink and mirror being...I watched this hotel goes through its renovations throughout other trips and decided to stay here this trip as it was done, the Pizza Press being close (my favorite place to eat off Disneyland property) and it's location to the park.  It was also cheaper than my usual hotel, as well as offering a better AP discount than that hotel.It was a good stay.  I arrived early and didn't expect my room to be ready, and they initially said it wasn't.  But offered my a single king sized room that was ready, which was fine as I was alone.  The lobby is very nice, feels very much like a proper hotel rather than a motel.  A staff member greets you whenever you walk by, which is nice.  The grounds are lovely and the vibe from lobby carries on to out there.  My room was the on the second floor in one of the back buildings, the ones without a balcony or patio, which was fine by me but something I'd like to experience.  I was very thankful they had a ramp, which I discovered after lugging my bags up the stairs.The room felt large, but it could be because of the single bed in the center, but it was also a king so not a small bed.  It was clean and looked fine.  The layout of the room was a bit odd, with the sink and mirror being in a hallway thing off the door that led to the toilet/shower room.  There was no stereotypical front window, instead it was in the back looking out, which was nice.  Bed was comfortable, pillows were comfortable, sheets were alight, a bit rough.  Towels were okay, nice the first day but all the replacements were rough.  AC worked okay, though at night it seemed to not work as well.  And sometimes when it was on the ceiling would emit heat.  The mini fridge could get loud at certain points.The walls and floor are very thin, I could hear my neighbors conversations and noises fairly clearly.  And while I was on the 2nd floor, I could tell the floor was thin and I was probably bothering the people below me walking around.  It didn't bother me much, but I'm also up early and bed late so most people are asleep when I'm trying to fall asleep.WiFi was fast, even at peak times.  I did have to call the front desk to find out how to access it as they left no instructions anywhere nor did they inform me when I checked in.  Pizza Press gets very busy at dinner time, but apparently you can order some pizzas through the bar in the hotel.  They also do online ordering.  Checkout was super easy, they left my bill by the door and I just left my keys in the room and left.More</t>
+  </si>
+  <si>
+    <t>Bokehfoto</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r591753570-The_Anaheim_Hotel-Anaheim_California.html</t>
@@ -273,6 +288,9 @@
 The room was very spacious for two adults and a teenager to survive for 3 days. The beds wasn't that comfortable but it wasn't so bad either. It was just kinda worn out and ready for replacement.  The bathroom was great and clean.  The room was very clean.  We did not request housekeeping during our stay as I normally do this.  We saw housekeeping in the hallways and they were always pleasant. Actually all the staff were...2nd time visitor review/update for May 2018:For my 40th birthday in May I chose to stay at this hotel again for 3 nights. I booked a standard room at a good rate directly with hotel website about a month before my stay.  It was supposed to be just me but last minute I decided to bring my kids. When we arrived I asked if we could either get a rollaway or switch to the standard two king room.  Basically they are the same price so we opted for the two king room.  We were also able to check in a bit early than regular check in time, I think it was 2pm.We were at the other end of the building I stayed in on my 1st visit. No balance which is fine. This particular room the ac unit was built into the room with a thermostat on the wall and the air vent on the wall too. The ac worked perfectly.The room was very spacious for two adults and a teenager to survive for 3 days. The beds wasn't that comfortable but it wasn't so bad either. It was just kinda worn out and ready for replacement.  The bathroom was great and clean.  The room was very clean.  We did not request housekeeping during our stay as I normally do this.  We saw housekeeping in the hallways and they were always pleasant. Actually all the staff were pleasant and nice.We swam in the pool this trip and it is clean and comfortable temperature.  We also ate once at the Pizza press which is our favorite.The only problem I encountered was the hassle from the people at the little booth in the lobby between the gift shop and registration.  The sign said free breakfast and the gentlemen there called us over twice. At first you don't know what you are getting but basically it is a sales pitch to get you to a timeshare presentation and it has nothing to do with the Anaheim hotel. They must be one of their other hotels. But I can tell you most people don't have time to listen to timeshare stuff during their vacation, especially if they don't know in advance. I did not like this at all!(Apparently after this trip I have earned a reward for a free night. It sounds like it might be tricky to redeem so I will update later this fall if I am able to redeem it.)More</t>
   </si>
   <si>
+    <t>fastbev648</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r591369374-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -297,6 +315,9 @@
     <t>Great location and time for  another trip here again in August it is the best place to stay we love it here everyone treat's you well and courtesy, kind helpful and always there for you if you need helpMore</t>
   </si>
   <si>
+    <t>quinnaryanna</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r589360967-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -312,6 +333,9 @@
     <t>The Anaheim hotel was an amazing place to stay. Staff was so friendly, rooms were clean, a very nice vibe. Highly recommend to anyone looking for a decently priced room with a very short walk to the Disneyland resorts!!</t>
   </si>
   <si>
+    <t>resa321t</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r589062371-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -330,6 +354,9 @@
     <t>After checking in we were helped to our room by a valet named Leo. He was very friendly and helpful and made sure we enjoyed our stay. The location is perfect, almost across the street from Disneyland main entrance. Our room was clean and it was nice to see real ceramic coffee mugs instead of the paper ones I get at most places. WiFi was included in our stay. The tub drain plugged up while we were there, but they had it fixed quickly. Our room was a double queen and a little smaller than I anticipated, but since we were spending most of our time at Disneyland it didn't matter. The view of the fireworks from the balcony was great. We'll definitely be staying here again.More</t>
   </si>
   <si>
+    <t>Joanna H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r588878335-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -348,6 +375,9 @@
     <t>I stayed here with my two boys ages 14 and 11 for three nights in April. I was looking for a place that wouldn’t break the bank, within walking distance to Disney and had at least one king bed or a combination of beds for all of us. The lobby and grounds were beautiful as was the enormous swimming pool and hot tub. We made use of the pool every afternoon and absolutely loved it. The room, albeit not updated, fit exactly what I was looking for.  It had two king beds, a LARGE vanity area and was clean. The room showed its age but was perfectly acceptable especially for the time we were in it...which really was just to sleep. Pros:The poolRoom sizeClose to Disney Beautiful grounds and lobbyCoffee in roomRefrigerator in roomEconomical Cons:Housekeeping was excellent once they got to our room... which usually wasn’t until 5:00Outdated/broken lamps in roomNever could get the TV to work... but also never asked for helpThe “concierge” in the lobby was a timeshare spiel for a hotel down the street. Which was truly annoying since we had to walk by it numerous times a day No breakfastOverall, I’d 100% stay here again. It is not a 5 star hotel but it works and is affordable. In fact, I got the room for about $105 a night.More</t>
   </si>
   <si>
+    <t>Jaime B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r588507382-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -363,6 +393,9 @@
     <t>I have been staying here for years and love every minute of it. The staff is so friendly and helpful, the rooms are clean and huge. The pool is amazing. The pizza press connected and the bar are great spots too! The value is incomparable!</t>
   </si>
   <si>
+    <t>Arielle P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r588190088-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -381,6 +414,9 @@
     <t>Pros: Hotel location was flipping amazing literally across the street from Disneyland, 2 blocks from 2 pharmacies, Starbucks, Blaze pizza and many other amenities. Also, if you aren't staying here you can park in their lot for $20 and walk across the street to Disneyland (way better than taking the bus or tram from the Disney parking structures). Pool was large, plenty of seating and privately enclosed.Food ans drinks in the lobby were great! Service was quick. Our room had a large vanity with double sinks and a separate bathroom perfect for 4 friends sharing a room. Room was large! Cons:The rooms were dark and wifi doesn't reach the last few rooms furthest from the lobby had to go outside in the hall to get service.Our room felt dirty (mostly the carpet) even thought it had been "renovated" it didn't feel like it.Lots of noise from the street, hallway and above us (kids running).Despite the cons I would stay here again.More</t>
   </si>
   <si>
+    <t>Kim C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r588186616-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -396,6 +432,9 @@
     <t>Wonderful hotel at a very reasonable rate  that’s just a short walk to Disneyland.  Rooms were spacious enough for my family of five to not be completely on top of each other. Loved the big pool and jacuzzi and the breakfast at the restaurant was delicious and affordable. But the best thing about this hotel, hands down, is Candy at the Front Desk. She went above and beyond to assist us with an delivery of medical supplies for our son. Even called us after we got home to make sure everything worked out. She made our stay exceptional, and though she definitely stood out, the customer service overall was some of the most personal I’ve seen in a long time.  We will definitely return to this hotel.More</t>
   </si>
   <si>
+    <t>1weetwood</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r585797078-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -411,6 +450,9 @@
     <t>We booked this hotel after our airbnb had major issues. We were so glad we did. The hotel is located just a 5 minute walk from Disneyland, and a few minutes from Bubba Gumps, The Cheescake factory etc.Attached to the hotel is the pizza press which is a cheap but great little pizza restaurant. All the staff were brilliant, hotel very clean, rooms comfortable. It has a really nice pool which we didn’t use due to poor weather. We would definitely stay here again.</t>
   </si>
   <si>
+    <t>maraj414</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r585581592-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -429,6 +471,9 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>Jmlx3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r584029656-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -447,6 +492,9 @@
     <t>Recently stayed at The Anaheim Hotel for 4 nights. 2 adults and our 8 year old son.Very pleased with its location, a very easy quick walk to the main gates of Disneyland.The main areas, lobby, huge pool, restaurant and bar areas are all great and have undergone a refurb. I expect the next stage for refurb might be the rooms, which are needing some money spent on them. While the rooms are adequate and comfortable the bathrooms are showing their age, but are very clean. The towels need replacing.Our first night was spent in room 735. It was dreadfully noisy. A constant loud noise, possibly from an industrial air con unit made it very difficult to sleep. We mentioned this to Carlos at reception the next day,he was very helpful and offered us another room 411 which was quiet.I would suggest asking for a room on the top floor, as you do hear people walking above you if you’re in ground floor rooms.The pizza restaurant was good and convenient to grab a quick meal, and the coffee was excellent in the morning at the bar. A quick espresso to fuel up for our mega Disney day!We would recommend this hotel, as it’s good value and offers a comfortable home base to recharge tired humans between Disneyland visits.More</t>
   </si>
   <si>
+    <t>Michael C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r582210613-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -462,6 +510,9 @@
     <t>This hotel is offering many discounts available including Disney annual pass making for a great value on a hotel that is withiin easy walking distance of the Anaheim Parks. Still undergoing what has turned into massive removations of an older property with some very unique landscaping. very nice sized rooms with patio or balcony. Great deal! The pizza prss restaurant is nothing short of incredible (especially for the price). Very professional staff!</t>
   </si>
   <si>
+    <t>Daniella H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r581996582-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -480,6 +531,9 @@
     <t>I decided to stay at this hotel on a recommendation from a friend because they said it was updated and close to disneyland. I was pretty disappointed when I got to the room. Stains on the ceiling, furniture is really outdated, floors need replacing, bed was not comfortable and looked old. The size of the room and bathroom are big but the lack of furniture makes it feel empty and incomplete. The lobby looks nice, clean &amp; modern which is what the rooms should also look like. I decided on the second day of my stay to relook at the website because I knew I wouldn’t book a hotel that looked like the room I stayed in. The photos were nothing like the room I had - not the same furniture, or bedding, ect - and then I realized that I got an old room. So i paid and booked this hotel based on their website photos, thinking i’d get a nice clean room. I definitely feel like I wasted my money and that it was falsely advertised to me. Only pro was that it was a very close walk to disneyland.More</t>
   </si>
   <si>
+    <t>Michael G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r580887744-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -498,6 +552,9 @@
     <t>My family and I stayed here for our annual Disney resort vacation this year and we had an overall great experience at this hotel. To start, we arrived early on our check in day and I was not expecting to be able to check-in to the room(and that would have been ok, considering that it was about 10:15 A.M. when we arrived) , but the front desk associate informed us that our room was in fact ready and we were able to check in to the room right away. This was a big plus for us because we didn't have to worry about leaving our bags in our vehicle while we headed over to the park. Upon entering the room, we were pleasantly surprised by the renovations that have been made to this hotel. The bathroom, furniture, fixtures, bedding and carpet were all upgraded. The vanity area had double sinks, which is great when you're traveling with multiple people and you're in a rush to get ready in the morning before heading out to the park. The carpet was very clean and the beds were extremely comfortable. Our room was on the second level of the 700 building and we had a nice view of Disney Way down below. Overall, everything about the room was great! Other than the hotel itself, one of the other great things about The Anaheim Hotel is the location. From our room to the park...My family and I stayed here for our annual Disney resort vacation this year and we had an overall great experience at this hotel. To start, we arrived early on our check in day and I was not expecting to be able to check-in to the room(and that would have been ok, considering that it was about 10:15 A.M. when we arrived) , but the front desk associate informed us that our room was in fact ready and we were able to check in to the room right away. This was a big plus for us because we didn't have to worry about leaving our bags in our vehicle while we headed over to the park. Upon entering the room, we were pleasantly surprised by the renovations that have been made to this hotel. The bathroom, furniture, fixtures, bedding and carpet were all upgraded. The vanity area had double sinks, which is great when you're traveling with multiple people and you're in a rush to get ready in the morning before heading out to the park. The carpet was very clean and the beds were extremely comfortable. Our room was on the second level of the 700 building and we had a nice view of Disney Way down below. Overall, everything about the room was great! Other than the hotel itself, one of the other great things about The Anaheim Hotel is the location. From our room to the park entrance was probably about a 5-8 minute walk. Being able to quickly get to your room for an afternoon break or at the end of a long Disney day is very important when traveling with children. And the location of this hotel, easily makes this possible. We spend most of our time at the park, so we didn't really have a chance to check out more of what the hotel had to offer. But from what we could see, the pool area looked nice with private cabanas, there was a gift shop located next to the lobby and the Pizza Press restaurant, located in front of the hotel, makes great pizza. Overall we were very pleased with our stay and we will definitely consider The Anaheim Hotel as a top option for our next trip to Anaheim.More</t>
   </si>
   <si>
+    <t>JnJ1234</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r580512654-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -522,6 +579,9 @@
     <t>Exceptional customer service on arrival, we asked for interconnecting rooms for our 2 groups, Sam Anguiano went out of his way to meet our request, which we were very thankful for.All staff acknowledged us upon entry and exit with a friendly smile.Close to lots of eating places ie Cheesecake Factory Great little bar, thanks Joseph for your friendly service.Easy walking distance to Disneyland.Overall a great place to stay. Highly Recommended.More</t>
   </si>
   <si>
+    <t>alexngm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r579939592-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -537,6 +597,9 @@
     <t>The location to the park was the biggest plus and the pizza place adjacent to the hotel. The pool area, grounds and lobby were good. The room was nothing special. Our closet door barely opened, the floor was so squeaky, the toliet had flush problems and the bath water took a long time to drain. Beds were ok and decor was basic. Overall an average hotel.</t>
   </si>
   <si>
+    <t>Stacy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r578859068-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -552,6 +615,9 @@
     <t>When I arrived at check-in time, my room wasn't ready until about 40 minutes after so I had to wait. They upgraded my room at no charge, which was a nice gesture. The employee who helped me check in was a bit rude. The room wasn't as clean as I liked it to be. The shower was stained, didn't look like it had been scrubbed clean. The sink faucet and its handles had toothpaste stains covering them. Overall, for the price and location it's a good hotel. However I will not be staying again due to the cleanliness issue.</t>
   </si>
   <si>
+    <t>Enid K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r578411311-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -576,6 +642,9 @@
     <t>Clean. Friendly staff and very military friendly! I mentioned my husnand’s 21st anniversary with the army being The Weeknd we stayed and the conscierge upgraded us to a room with a balcony overlooking the back of the Disney parks! There were also these AMAZING chocolate chip cookies left in the room with a note from the staff thanking him for his service! Very convenient to familiar restaurants like IHOP and Denny’s as well as a couple blocks to the Disney parks! I posted a glowing review on social media while we were there and already have a friend who is strongly considering staying there next year with her family. More</t>
   </si>
   <si>
+    <t>trigali</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r577506277-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -600,6 +669,9 @@
     <t>The rooms here are nice. There is a refrigerator and coffee maker in the rooms. Great for families with kids. The Olympic size swimming pool is awesome. The staff here is always friendly. Good drinks and food at the bar. If you have a problem in the room, let the staff know and they will take care of it.More</t>
   </si>
   <si>
+    <t>Kelley B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r576644492-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -624,6 +696,9 @@
     <t>We came with a group of 155 teens for a Disney trip.  Getting the correct room assignments for that many teens is nearly impossible but the staff were kind, gracious and patient and all our teens were happy.  Stephen was wonderful to work with and would book here again for the next trip!More</t>
   </si>
   <si>
+    <t>Cindy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r575837592-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -648,6 +723,9 @@
     <t>Great location, great staff perfect for a Disney getaway. Made return reservations with front desk, have asked 5 times for that reservation to be email, I have yet to receive it.  Not sure why?  Probably best to cancel and just re book myself..If you want to be a part of their frequent stayer program, you must book directly with them.More</t>
   </si>
   <si>
+    <t>Kennedy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r575667573-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -669,6 +747,9 @@
     <t>Not the best hotel, but if you want to save money, you can stay here. They have an okay sized pool &amp; hot tub, but chairs are VERY limited. The rooms are not really up to date in my opinion. After the maid services visited our room, several things appeared to be gone or missing. I believe they have 1-2 restaurants on sight, but I did not eat at any of them. The location is not bad though, it's only a short walk to restaurants, CVS, Disney, etc. No breakfast was included.More</t>
   </si>
   <si>
+    <t>Chris T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r575212258-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -685,6 +766,9 @@
   </si>
   <si>
     <t>Just checked out of our hotel of 3days &amp; 2 nights &amp; we couldn’t be more satisfied! Candi took great care of us &amp; had amazing customer service ! We will be back again for our next vacation! -The Todorvitch FamilyMore</t>
+  </si>
+  <si>
+    <t>momYYC</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r575022085-The_Anaheim_Hotel-Anaheim_California.html</t>
@@ -743,6 +827,9 @@
 Nicely landscaped, lots of plants and trees...My family of 3 stayed here for 3 nights mid week and received the 25% off deal. We were in the 500 building close to the pool. I don't think this building has been renovated as the other buildings have. We had a tiny room with 2 Doubles (I reserved a larger room with 2 Queens, but didn't complain as we got an early check in). If our room had been cleaned this rating would go to a 4 out of 5. I am totally fine with an older non renovated room and building, but its frustrating that they didn't even clean it. Its someone's job and it wasn't done. The rooms are motel style, with the doors opening to the outdoors. I was also told by the front desk that the 2 KING rooms do not come with a balcony or patio. PROS:Granted an early check in (2pm) Easy check outNice foyer renovationFriendly and helpful staff5 minute walk North to the parks5 minute walk South to a Liquor storeNice large heated swimming pool and Hot tub spaGarden Walk right behind hotelOne bed was very comfortable with 3 pillowsRoom had a small safeMicrowave Good sized fridgeExtra plug ins on the bedside tableNice patio with lounger and small table (patio same size as our room)Great Pizza Restaurant on location (serves breakfast)Nicely landscaped, lots of plants and treesCONS:Basic cable on flat screen TV, no HD, no Disney channelsTerrible Reuben sandwich version at loungeOne bed was terribly caved in on one side with a lumpy mattress topperSeriously filthy room (not vacuumed, not dusted at all, hair on bathroom floor and tub, fingerprints and grime on faucets and toilet paper holder) We seriously wondered WHAT the cleaning staff actually do, just change the towels?The AC unit was full of black grime/mold, we turned it right off Lots of noise from second floorPatio door handle flew off in our hands onto the floorIn the hallway, there was garbage that sat there for 3 daysThe peephole on the door was filthy and distorted when looking throughNo blackout blinds, very bright in roomPool / spa closes as 10pm, wish it was later to enjoy after the parksDespite the CONS, I would likely stay here again due strictly to the price, pool and location.More</t>
   </si>
   <si>
+    <t>Merandamae0804</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r575000600-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -755,6 +842,9 @@
     <t xml:space="preserve">The location is great, it is such a short walk to the park, and food options near by. I would say it took about 10 min to walk to the gates of the Disneyland park each day. The room itself was pretty clean,  but the bathroom could have used some cleaning. We had some problems with the water like other guest but it didn’t seem as bad at night. Check in and check out was easy, no issues with charges to my card or parking. It wasn’t the best hotel I have stayed in, but for the price and location it was okay. </t>
   </si>
   <si>
+    <t>bopqueen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r574734346-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -773,6 +863,9 @@
     <t>We’ve stayed at the Anaheim Hotel twice in the last three months because they’ve had great rates. The lobby and guest services are wonderful. It is nice to have the yummy Pizza Press and bar on site. The pool and workout room are nice and seem to be well taken care of. The $12 parking is super reasonable for the area. The room for our first stay was completely different than our first. We had two double beds and a patio. It was an old room and was missing pictures from the wall. Very outdated compared to the rest of the hotel. Our second room was much nicer. It was a huge room that had been recently painted and the bathroom looked redone. Overall, for the price and location the Anaheim Hotel is a good value. We would definitely consider staying again. More</t>
   </si>
   <si>
+    <t>kroddy56</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r574396840-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -788,6 +881,9 @@
     <t>Would have been a 5but we had problems getting into our room every night. Took 3 to 4 tries to get the key to work. Even had the valet try to get in and he had trouble. We had three room keyes and had trouble with all of them. Same problem would happen even after we had them rekeyed. We will continue to stay here as I believe that this was just a fluke as we never had this problem before.</t>
   </si>
   <si>
+    <t>vcnazario</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r574241702-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -803,6 +899,9 @@
     <t xml:space="preserve">Great location and room. Staff is very friendly. Walls are thin and you can hear upstairs steps and noise if in lower level room. Bar closes very early. Property grounds are nicely kept. Rooms are dingy and walls are dirty especially for being recently remodeled. </t>
   </si>
   <si>
+    <t>Stephanie W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r574221848-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -818,6 +917,9 @@
     <t>We traveled here with 153 high school students.  The rooms were amazing and the beds were very comfortable.  The hotel is a quick walk to Disney.  The cabana room was a great meeting place for our large group.  The trip was great!  Unfortunately, I hurt my knee while on duty in the lobby.  I could not walk on it.  Leo, the valet, was the only staff member who noticed and found a wheelchair for me and helped me to my room.  He also helped me get into transportation to a nearby hospital.  He was amazing!  When I returned from the hospital, Audrey pushed me to my room and got me ice in a pillow case, extra ice, and other items to help.  She also ordered a scooter for me.  The next day Caesar brought me the scooter and also checked to see how I was doing.  The valets went above and beyond to help me!  Leo, Audrey, and Caesar are definite assets to this hotel.More</t>
   </si>
   <si>
+    <t>landryjr2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r571915921-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -833,6 +935,9 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>KateWilliams725</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r571796805-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -851,6 +956,9 @@
     <t>We came out here from Italy to stay for a week an we loved this place every thing went so well from service to hospitality pizza press is grate when we came in by Uber an we came across these to great valet Jim!!! An Charles. Jim walked us into the front desk an asked if we needed any help he put our belongings on a cart an he had so much to tell us about the place what was near by how to get where we needed to go faster then when he bring our luggage to the room he asked us if we needed ice then he set the time for us an also put our alarm for 7:30 all I have to say is thank you Jim so much I will definitely be back soon More</t>
   </si>
   <si>
+    <t>jensrosa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r571434751-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -869,6 +977,9 @@
     <t>We will definitely be staying here when we visit Disneyland again. All the staff was very helpful. We got to the hotel early, way before check-in and were still accommodated into a room and did not have to wait to check in until the afternoon. It has a great pizza place adjoined to the hotel, so dinner was easy and the pace was great. They also have a cute little gift shop, good prices and convenient.  When we left the let us store our luggage, we were able to enjoy the day at the park, and then come get our stuff when it was time for us to leave to the airport for our flight. Leo, one of the hotel staff was so helpful in helping us load our bags into the uber, he even waited until we left before going back in to the hotel. Leo was very patient with us, seeing as we had to load 4 kids, 2 with car seats.It made our night having him help us out. Great place to stay.More</t>
   </si>
   <si>
+    <t>Melody_cortes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r569562436-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -884,6 +995,9 @@
     <t>Check in was fast and easy,staff was very helpful,since we were a large group valet was more than helpful getting our bags down. (Bobby the guy with the blond dreads was extremely kind and helpful). Our room was clean,but I can understand how some say the hotel looks old.Location is great,they have Pizza Press next door,many food locations surrounding the hotel and Disneyland is right across the street.Will be back again for our next Disney trip.</t>
   </si>
   <si>
+    <t>AceJohnson77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r569518919-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -899,6 +1013,9 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>mwinegard</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r569290356-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -914,6 +1031,9 @@
     <t>We had a great stay at the Anaheim Hotel - everything we needed was right there. Rooms were new and clean. The restaurant was great food/service and value! We will definately be back! This will be our go-to for all our Disneyland vacations</t>
   </si>
   <si>
+    <t>glinda501</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r568644761-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -935,6 +1055,9 @@
     <t>The lobby had a nice mid-century modern look.  The rooms, however, were old and musty smelling.  My room had stained chairs - definitely didn't sit on those!  The bathroom had drain flies.  My room was at the very end of the property next to the parking and the door frame was cracked with NO guard bar on the door!  I asked to be moved but was told there were no available rooms.  My associates rooms were also musty and old but at least the doors were more secure.  I was never happier to check out of a hotel!  Close to the convention center and across from Disney but not worth it.  Think twice.More</t>
   </si>
   <si>
+    <t>roberge626</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r568565607-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -953,6 +1076,9 @@
     <t>My family rented a room with two king size beds to stay for 3 nights. I went to take a shower and there was no hot water. After the maintenance man said there was nothingness he could do st the moment, a very helpful man by the name of Leo came to help. He showed me another room on the same floor and wanted to make sure the water ran hot. It also was cold. So he helped us move to another room which all they had left was a room with double beds. But they brought in another cot for our son to sleep on. I must say, it is a nice cot. I want to give a shout out to Leo for being so helpful, kind and professional!!!More</t>
   </si>
   <si>
+    <t>Maile P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r568542408-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -965,6 +1091,9 @@
     <t>Hotel is great, includes numerous amenities. Has clean and comfortable rooms, and offers Annual Passholders discounts. I'm sick of writing this review now because tripadvisor can't keep it together hence this rant. Really though wonderful location, good bang for your buck. Staff, that unlike to coders for tripadvisor, know exactly what they're doing. Also Priceline&gt;Hotels&gt;tripadvisor, it's probably why they don't capitalize the letters in their name.</t>
   </si>
   <si>
+    <t>lritch399692</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r568264747-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -980,6 +1109,9 @@
     <t xml:space="preserve">Great hotel value. Very short walk to DL. Pleasant staff who greet us each time we walk by and are helpful with questions. The remodel that happened recently really improved the layout of the rooms since our last visit. The rooms are big enough for our family of three and a jogging stroller to fit comfortably. They’re also very clean and quiet. </t>
   </si>
   <si>
+    <t>Skimom2202</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r568260098-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -992,6 +1124,9 @@
     <t>This was the perfect location and price for us.  The staff was so friendly and helpful through the entire visit.  The concierge helped to arrange all of our transportation to and from the airport and booked us on a tour of LA.  Everything was seamless!  The hotel was clean and we enjoyed our two night stay very much.  Our walk to the Disney parks was just a few minutes.  There is also a lot to do in the area.  I would definitely stay there again.</t>
   </si>
   <si>
+    <t>jkeane925</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r567371730-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -1007,6 +1142,9 @@
     <t xml:space="preserve">great place to stay when doing to disneyland. Love the vibe and a nice bar. Let us check in early so we could have a full day in the park. Staff was friendly and helpful. Bartender on first night was friendly and helpful with disneyland insite </t>
   </si>
   <si>
+    <t>Travelleries</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r565924541-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -1022,6 +1160,9 @@
     <t>The hotel was great value for money, clean, comfortable rooms and the staff were very help full. Very conveniently located only a short walk from the Disneyland enterance. I wouldn’t hesitate to stay there again.</t>
   </si>
   <si>
+    <t>Nancy L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r565494217-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -1037,6 +1178,9 @@
     <t>When we stayed here in September, we were thrilled at this hotel and staff and came home and booked our stay for this past week at that time. Once again we were not disappointed. It just keeps getting better and better. As soon as we figure out our next Disneyland trip we will be booking The Anaheim Hotel for our stay. It was excellent stay!</t>
   </si>
   <si>
+    <t>S C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r565370664-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -1055,6 +1199,9 @@
     <t>On the first look, the Hotel looks fantastic, we got a good room rate, nice facility but we had some issues, first we got the wrong room, then we switched to the one we ordered, but our luggage was not where it was supposed to be. Thanks to Leo and Steve it was all sorted out and I was thrilled. Leo is such a fantastic employee he really pulled out trip our of the fire and turned it around. In my opinion being able to fix a problem and the way it is fixed says more than staying someplace where everything goes smooth until something goes wrong and no one knows how to act.  Well here they knew how to handle it. I will be giving this hotel another try thanks to these two gentlemenMore</t>
   </si>
   <si>
+    <t>Iceblaze13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r565062716-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -1070,6 +1217,9 @@
     <t>It was about a 5-10minute walk to the security lines to enter the park. Check in was a breeze. We got a room with two king beds and there was ample space for our one night stay. The room was clean and very decent for the price we paid and the proximity to Disneyland. We would definitely stay here again next time we have a Disney weekend trip.</t>
   </si>
   <si>
+    <t>haugens2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r564909388-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -1085,6 +1235,9 @@
     <t>it's so near Disney and it's safe people are nice.  I Lost my cell phone and people at front desk missed my phone it was there and they didn't see it. Thanks to Leo he's an employee he look very hard and there it was. Also Leo help us with a sick relative he's an angel thank you Leo</t>
   </si>
   <si>
+    <t>cowzman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r564577489-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -1100,6 +1253,9 @@
     <t>Remodel was great, Rooms were clean and fresh. We have stayed many times before but were pleasantly surprised at how nice everything is now. Only thing they could improve on is the pizza restaurant.  Would like to see a more diverse eatery.</t>
   </si>
   <si>
+    <t>Rzrbckguy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r563243786-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -1121,6 +1277,9 @@
     <t>We went to Anaheim for a convention and decided to stay at a hotel right next to the convention center.  After booking we were notified that the hotel (Anabella) was closing down and they had to move our reservation to a sister hotel.  When we got to the Anaheim hotel and checked in, we walked outside to our room.  They were obviously doing construction at the time, so the grounds had fences up and not in great shape.  We walked into our room and found a basic very small room that was completely different from what we expected when we booked.  When we tried to get a refund or a larger room the staff were extremely rude and told us they couldn't refund the price and basically needed to speak to a member of management.  After speaking with numerous people in person and over the phone the hotel basically said sorry we can't help you.  For the amount of money you would spend at this hotel, you can stay at MUCH nicer locations with more amenities and better service.  I would not recommend this hotel.More</t>
   </si>
   <si>
+    <t>Courtney S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r563154020-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -1133,6 +1292,9 @@
     <t>This hotel is a very good value for the location to Disneyland and local restaurants and shops.  Fun retro decor in lobby with a nice bar area.  Very friendly staff.  The rooms were very clean and comfortable.</t>
   </si>
   <si>
+    <t>Michelle8170</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r562206109-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -1145,6 +1307,9 @@
     <t>Just returned from my trip and we stayed at this Hotel. The rooms were great size and sinks were separate from the shower and toilet which makes getting ready easy when your a few people in the room. The pool was Large, hotel staff were friendly and helpful. Great location 5 to 10 minute walk to everything</t>
   </si>
   <si>
+    <t>ZMmm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r560371714-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -1169,6 +1334,9 @@
     <t>Walking distance to Disney parks making it easy to go back to the hotel if you want to take a break (if you have small children). Price is not too bad considering the distance to Disneyland. Room is getting to be a little on the old side.Not too impressed with hotel charging me USD$4.00 per parcel (things that I bought on line and got delivered to the hotel).More</t>
   </si>
   <si>
+    <t>Ann O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r560318760-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -1182,6 +1350,9 @@
   </si>
   <si>
     <t>We loved the hotel. Private patio. Attached pizza restaurant. Beautiful pool. Laundry room was useful. Friendly and courteous staff. Clean linens, nice soaps. Comfy beds and nice pillows. Private. Quiet all times of the day. Comfortable walk to Disneyland parks, especially at the end of a long day, didn't take forever to get back. More</t>
+  </si>
+  <si>
+    <t>Marcus W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r560158062-The_Anaheim_Hotel-Anaheim_California.html</t>
@@ -1222,6 +1393,9 @@
 - WiFi sucks, really sucks, you have to...I worked in the hotel business during college, around 7 years. I know the in's and out's from cleaning the rooms, maintenance, to working the front desk. I'll start with the negatives and end with the positives of the hotel.Negatives:-Deposits are required up to $100 per room; most hotels only charge $50.  Make sure DO NOT use a Debit Card. - Water in both of our rooms (721 and 723) kept going from hot to cold. Really bad little or no water pressure- AC/Heater units have high pitch noise in 721 and 723 sounded like a semi truck- Really thin walls all around, could hear neighbors all throughout the night.- Ceiling creaks like no tomorrow if you have neighbors above you. - 2 out of 4 mornings we didn't get room service. Actually had to get rude after it happen the 2nd time. - Rooms are recently renovated but it looks really rushed in the bathroom area. Stress cracks are already starting show really bad. Mold is already forming in bathtub above shower in 723.  Sink faucets could be moved in 180 degree, not tighten on.  - I could keep going on, but really don't want to scare people off from staying here. I can tell a lot of work has been done to get things updated but lots of areas were seemed rushed to meet deadlines.- WiFi sucks, really sucks, you have to be outside your room to get a signal.- No free continental type breakfast. Positives:- Updated fixtures, furniture, beds, carpet, rooms painted, etc. - Bathrooms look great! Just rushed in some areas. (see above)- The room rates are to bad being so close to Disney.- Quick trip to the front, to their convenience store and pizza shop to met all your needs if you've been in the park all day.- Walgreen's and other eating establishments within 5 minutes walking. Final Thoughts:- Gosh, you gotta get that Wi-fi fixed that reaches all your rooms. After a long day at Disney, people want to rest and just enjoy getting on the internet. But that ain't going to happen with that crappy wireless connection. You all need to get this fixed asap. If you're able to update all your rooms, the front lobby, parking lot, etc...you can spend more money to fix your spotty wireless. - Your rooms look great but it seems like your AC/Heaters, Water heater, and plumbing weren't updated during your re-model. That's equivalent to fixing up a classic car without working and updating the motor and making it a more reliable driver. AC/Heaters, Water heater, and updating your plumbing is just as important, if not more important, than remodel all your rooms. I would rather stay in an outdated clean room knowing my AC/Heater and shower are working properly.- Keep up on your maids and make sure they clean those rooms! Again, we went 2 out of 4 mornings without clean towels and other cleaning services. My tips to the future guest:- My opinion can only reflect my 4 night stay there with family in rooms 721 and 723 on the first floors. Use my feedback combined with others before you turn away from this hotel. Make sure to look for detailed reviews from past guest. Don't go with the one liner hotel reviews like "this was a great spacious stay", or if they just have 1 or two reviews under their belt - Stay on the 2nd floor, the first floor rooms I could hear 2nd floor guest walking back and forth all throughout the night. It wasn't their fault, the 2nd floor flooring should had been tested and updated during their remodel. - I enjoyed their breakfast at the pizza place but it's really expensive. The most basic breakfast plate was around $11+ tax. - Make sure to review the room before you stay. Request you see your room first to make sure it meets your requirements. As a guest, you are entitled to this. I learnt my lesson by not checking Things to check- 1. Check wifi 2. Water Pressure (check hot/cold) 3. AC/Heater Unit 4. And room is clean to your standards. Would I stay here again? Probably not, there are other hotels around I'll check out first for the price I'm paying per night for this room.More</t>
   </si>
   <si>
+    <t>TKSF78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r559474792-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -1244,6 +1418,9 @@
   </si>
   <si>
     <t>They have done a great job sprucing the place up and making a budget property seem like so much more. They have very spacious rooms, very clean, comfy beds and pillows, huge bathrooms. Maybe one of the only places I have stayed that offers 2-king rooms. The property is very clean, well maintained, and has a fantastic pool as well as a great lounge/bar/cafe in the front lobby. Best of all, the place is directly across from the parks with the main gate 1 block away which is crucial for many since mid day breaks can help you get the most out of your park experience.More</t>
+  </si>
+  <si>
+    <t>MCoryB</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r559323307-The_Anaheim_Hotel-Anaheim_California.html</t>
@@ -1268,6 +1445,9 @@
 Unfortunately, that hip retro style did not extend to the guest rooms. Yes, they also underwent a renovation in recent times (from what I've seen in photos), but they in no way, shape or form coordinate with the mid-century style — other from a single piece of colorful artwork in the restroom. In fact, it made me think perhaps they got a really good deal on hotel furniture from another property that recently renovated and used those materials to furnish the Anaheim Hotel rooms. That's not to say the room was in any way...I stayed at The Anaheim Hotel during the first weekend of February 2018 after finding an excellent deal on the Executive King King Room on Booking.com. Sure, I could have paid a little less for a hotel off Harbor Boulevard, but I was attracted to the two-kings size of the room, which I've never seen at any other hotel. We had two adults and two children staying in the room, so the size was perfect for us.During past stays at the Castle Inn right next door, I've walked past this property and always thought "ewww" but was delightfully pleased to see they'd undergone a renovation that resulted in a really snazzy mid-century modern-inspired lobby. I love that style of decor and was very happy with the lobby, the building exteriors and the hotel grounds, which reminded me of a tropical Florida hotel in the 1960s.Unfortunately, that hip retro style did not extend to the guest rooms. Yes, they also underwent a renovation in recent times (from what I've seen in photos), but they in no way, shape or form coordinate with the mid-century style — other from a single piece of colorful artwork in the restroom. In fact, it made me think perhaps they got a really good deal on hotel furniture from another property that recently renovated and used those materials to furnish the Anaheim Hotel rooms. That's not to say the room was in any way uncomfortable or worse — it was quite comfortable, and I slept like a baby both nights. The disconnect in styles just really surprised me.Sure, I'll stay here again, if I ever need a king-king room. The location alone makes this hotel worth considering.More</t>
   </si>
   <si>
+    <t>Julie D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r558865170-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -1283,6 +1463,9 @@
     <t>What a perfect oasis from the frenzy of Disneyland.  Walking distance to the park makes a midday break possible, and the huge pool is fabulous with 50's music and lounge chairs for your enjoyment.  My room was comfortable and quiet.  The updating that has been done is great - lots of comfortable and colorful mid century seating in the lobby plus a bar.  I had a great glass of wine.  The staff is welcoming and efficient.  The best value I've found.</t>
   </si>
   <si>
+    <t>wendygutterson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r557448253-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -1301,6 +1484,9 @@
     <t>Older renovated hotel. Beds were comfortable and our room had 2 queen size beds. Became tight with 4 suitcases but we were out of the room every day so that wasn't an issue. There was supposed to be full room service each day. We were there from the 2nd to the 11th January. We were there for 8 nights and for 5 of them each night when we returned the room hadn't been made up. The lady who was called each night became embarrassed that this was becoming routine. Reception were told each day that we had the privacy tag on our door, which wasn't the case on any day. They gave us a refund of 9% of the room cost when we left to compensate for this, but I was surprised that it had been raised every day and nothing had been done for the following days.More</t>
   </si>
   <si>
+    <t>ognerdgirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r557426074-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -1313,6 +1499,9 @@
     <t>The staff is friendly and amazing. We always stay at this hotel during our family trips to Disneyland. The front gate is not a far walk, about a half mile, which is nothing when you're walking all day anyway.</t>
   </si>
   <si>
+    <t>staceyk433</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r557402745-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -1325,6 +1514,9 @@
     <t>We love this place and stay often. There are no bells or whistles, no crappy continental breakfasts, just a wonderful place to stay with nice people working and a good clean atmosphere. So close to the park.</t>
   </si>
   <si>
+    <t>Sherrysigurdson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r555298553-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -1349,6 +1541,9 @@
     <t>Stayed here for 4 days Jan 3 to Jan 6.  Nice a close to Disneyland entrance. Clean room, friendly staff. Beds were comfortable. Great gift shop on location. Was able to leave luggage secured away at the main lobby as flight wasn’t out until 7:50pm. So that was very convenient. More</t>
   </si>
   <si>
+    <t>Yvette N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r554824593-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -1373,6 +1568,9 @@
     <t>Great location! The Pizza Press was convenient to have there for when we got hungry late at night coming back from the parks. The bar was great too for when the adults needed a break. We brought board games and tablets for the kiddos to lounge around in the lobby with us. It was perfect!More</t>
   </si>
   <si>
+    <t>WylesFamily</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r553666153-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -1397,6 +1595,9 @@
     <t>My family and I love visiting Disneyland and California Adventure.  Over the years we have stayed at so many different hotels in the area.  This is our very first time staying at the Anaheim Hotel.  We were pleasantly surprised!  This hotel is so convenient!  Easy walking (just across the street!) from where you walk into Disneyland and California Adventure.  Large rooms and a wonderful Olympic sized outdoor pool that felt so great after walking all day at the parks.  I highly recommend this hotel to everyone visiting Disneyland and California Adventure.More</t>
   </si>
   <si>
+    <t>Kekoskee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r553367300-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -1421,6 +1622,9 @@
     <t>It is hard to find a room when you are traveling with your now "adult" children (18 and 20). A regular room with two queens is a little tight and a "family" room with bunk beds just doesn't fit a 6'3 boy/man. This hotel offers a family room that has a King and two queens! AND at a great price! I would suggest this hotel to anyone traveling with adult kids or just a group with 6 adults. Also the location is right across the street from Disneyland!More</t>
   </si>
   <si>
+    <t>Mattheltsley</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r553285849-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -1439,6 +1643,9 @@
     <t>I paid for the biggest room they had it was the family suit and I got to tell you it was smaller than advertised the doors barley closed and the fridge was in the living room let alone none of the switches for lights were near the lights making you have to look around for the switches. Can’t watch tv with the remote they give you called the “clean remote” has maybe 5 buttons on it the only good thing about this place was the beds they were comfortable and seemed clean I wouldn’t ever stay here again especially for the price I paid 100% not worth it was expecting way more, also was told was a Park veiw all I saw out the window was a tree and a building infront of me...More</t>
   </si>
   <si>
+    <t>kmmontalto11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r553279672-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -1454,6 +1661,9 @@
     <t>Clean, comfy, good service, we were able to walk to Disney land. Only down side was trying to get food at night at the pizza place in the lobby took over an hour. Kids were not happy. But the food was good. More</t>
   </si>
   <si>
+    <t>wibby_01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r551867606-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -1473,6 +1683,9 @@
   </si>
   <si>
     <t>It’s always a game for us to see how last minute we can get a great room for a great price. It didn’t look like we’d be able to do it given that most hotels around Disneyland are booked so far in advance. After our first night, we decided that we loved the location and retro vibe of the Anaheim. It was under renovations, and the lobby looks fantastic. The front desk staff was very friendly and helpful; they held our luggage for us even though we arrived hours before check in. The rooms weren’t fancy, but it was quiet and the beds were comfortable. It was so close that we were able to go back and forth to the park without losing much time. The only downside was the shower never seemed to heat up, but I’d call that a fluke due to the renovations and would definitely not let that deter me from staying again. We will definitely stay here when we come back next year. I love a good game of hotel chicken, and this one ended pleasantly! More</t>
+  </si>
+  <si>
+    <t>blamar</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r551650376-The_Anaheim_Hotel-Anaheim_California.html</t>
@@ -1497,6 +1710,9 @@
 It is called a hotel but it actually works more like a motel.  Although you can’t park right by your room there is parking at the front and the side of the motel for lots of vehicles.  There are no common hallways like a hotel but separate apartment style units.  They have a...At one time, it was called the Anaheim Plaza.  Now it has a new name – The Anaheim Hotel.  This is a good bit of information because my GPS was listed with the old name even though I updated the device a week before we left.   It used to be across the street from the Disneyland parking lot and it was easy to take a short cut across the lot.  But since Disney built the California Adventure and Downtown Disney and the hotel found itself near three wonderful attractions.  The reason we picked the Anaheim Hotel was solely based on Rate and Location.  As a bonus, it has been recently renovated.  And we would stay there again.We checked in at about noon, a little earlier than we were supposed to but they were very accommodating with our accommodation.  We asked for a handicapped room and they gave us a nice room that was way in the back of the motel grounds.  It is kind of strange to place a person with mobility issues in a spot that is further away than others but it was okay.It is called a hotel but it actually works more like a motel.  Although you can’t park right by your room there is parking at the front and the side of the motel for lots of vehicles.  There are no common hallways like a hotel but separate apartment style units.  They have a rather large pool with a rather small hot tub, but frankly it was just before Christmas and too cold to really use them.  The front desk was very nice and very helpful.  I made our reservations on line but there was a slip up and they didn’t get a visa number to hold the room.  It didn’t matter, they worked it out and charged us the same as they originally quoted.So, we settled in, it felt a bit like stepping back in town with the drab greys and browns.  However, they had good television monitor, a fridge, nice bathroom area and good shower.  It is about a 15-minute walk from the Hotel to the main gates of Disneyland.  Remember when you are walking there it is about a block and a half to the crosswalk, then about another block through the bus stands to get to the security gates for the park. Then if you haven’t bought your tickets to the parks already it could be more time to get then.  Then another 20 minutes or so to get into California Adventure or Disneyland.  In the neighbourhood, there are a bunch of restaurants for all kinds of budgets.  A CVS and a Walgreens are about a block away, and there are lots of places to buy souvenirs.  We had one negative experience when our neighbours came home about 12:30am and elected to party until 1:30am.  We called the front desk but nothing happened.   In the morning we asked the front desk in person what to do with noisy neighbours and they said something must have went wrong because security should have stopped them.The last little bit was about using the concierge service.  We needed to be at the airport SNA by 5:45am so we arrange for a wake up call at 5am and the concierge service arranged transportation for us.  They were really helpful and knowledgeable, re-assuring and efficient.  All was good.There is a really good pizza place here (The Pizza Press) but that is another review.More</t>
   </si>
   <si>
+    <t>Enrique E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r551305664-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -1515,6 +1731,9 @@
     <t>As a late wedding present we got a New Year’s trip to Disneyland. Obviously we did not get to chose the hotel. Immediately got excited when we found about the location but got scared when we read all the bad reviews. Our experience was way better than anticipated. The lobby is nicely decorated with a mid century vibe, no doubt it was recently renovated. The personnel is very friendly and nice. Definitely this hotel was beautiful back in the day. As opportunity areas: The rooms are desperately crying for a renovation (specially to get rid off that ugly-stained carpet), but have a lot of potential. Ours had a small private patio with plants and furniture. The room smelled funny (not bad) I guess it is the humidity due to the old AC. The linens are cheap and the bath amenities are ok. All of the above can be forgiven if you understand and want to believe they are under a whole renovation plan. What’s really bad is the house keeping. They do not clean properly, not pay attention to detail (left us with no towels one day). Overall, if you are not too picky and just crashing while spending the whole day at Disney, this is an ok hotel with the potential to become a good hotel. More</t>
   </si>
   <si>
+    <t>JWWA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r549074499-The_Anaheim_Hotel-Anaheim_California.html</t>
   </si>
   <si>
@@ -1537,6 +1756,9 @@
   </si>
   <si>
     <t>This was our first stay here.  We were able to check in a bit early which was nice.  The front desk staff was friendly.  I think we were in one of the renovated rooms.  I like being on the second floor but when I saw that some of the ground floor units had private patios I think that would be something to try in the future.  Our building had stairs on one end and a ramp on the other so we could just roll our suitcases up.  We didn’t use the pool but it was a good size.  There is some green space as well as at least one seating area to hang out outside.  We liked the pizza place that in attached to the lobby area.  The exterior was more updated than many of the pictures online show.  We have stayed at a number of different hotels in the area and depending on price will certainly consider staying again.More</t>
+  </si>
+  <si>
+    <t>Keith K</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d75532-r547209034-The_Anaheim_Hotel-Anaheim_California.html</t>
@@ -2065,43 +2287,47 @@
       <c r="A2" t="n">
         <v>5751</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -2119,50 +2345,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5751</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2176,50 +2406,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5751</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2233,50 +2467,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5751</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2296,50 +2534,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5751</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
         <v>73</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" t="s">
-        <v>69</v>
-      </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -2357,50 +2599,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5751</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2412,56 +2658,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="X7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5751</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2475,50 +2725,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5751</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2532,50 +2786,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5751</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2589,41 +2847,45 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5751</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
@@ -2642,50 +2904,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5751</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2699,50 +2965,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5751</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2756,50 +3026,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5751</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="J14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="K14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2813,50 +3087,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>5751</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="J15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="K15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="L15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2874,50 +3152,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>5751</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>145</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="J16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="K16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="L16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2931,50 +3213,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>5751</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>152</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="J17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="K17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2988,50 +3274,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>5751</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>158</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="J18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="K18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3045,50 +3335,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>5751</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>165</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="J19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3106,50 +3400,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>5751</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>172</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="J20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="K20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3161,56 +3459,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="X20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="Y20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>5751</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>181</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="J21" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="K21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="L21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3224,50 +3526,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>5751</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>187</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="J22" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="K22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="L22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -3287,50 +3593,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>5751</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>193</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="J23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="K23" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="L23" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3342,56 +3652,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="X23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="Y23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>5751</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>202</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="J24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="K24" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="L24" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3403,56 +3717,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="X24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="Y24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>5751</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>211</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="J25" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="K25" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3464,56 +3782,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="X25" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="Y25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>5751</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>220</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="J26" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="K26" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3525,56 +3847,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="X26" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="Y26" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>5751</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>229</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="J27" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="K27" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="O27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P27" t="n">
         <v>3</v>
@@ -3592,56 +3918,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="X27" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="Y27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>5751</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>237</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="J28" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="K28" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="L28" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3653,56 +3983,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="X28" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="Y28" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>5751</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>244</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="J29" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="K29" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="L29" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -3722,50 +4056,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>5751</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>251</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="J30" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="K30" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="L30" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3779,50 +4117,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>5751</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>256</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="J31" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="K31" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3836,50 +4178,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>5751</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>263</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="J32" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="K32" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="L32" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3893,50 +4239,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>5751</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>269</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="J33" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="K33" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="L33" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3950,50 +4300,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>5751</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>275</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="J34" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="K34" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="L34" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4007,50 +4361,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>5751</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>281</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="J35" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="K35" t="s">
         <v>36</v>
       </c>
       <c r="L35" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4064,50 +4422,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>5751</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>287</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="J36" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="K36" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="L36" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4121,50 +4483,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>5751</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>294</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="J37" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="K37" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="L37" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4182,50 +4548,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>5751</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>301</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="J38" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="K38" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="L38" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="O38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -4245,50 +4615,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>5751</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>307</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="J39" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="K39" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="L39" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4302,50 +4676,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>5751</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>313</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="J40" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="K40" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="L40" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4359,50 +4737,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>5751</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>319</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="J41" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="K41" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="L41" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="O41" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="P41" t="n">
         <v>2</v>
@@ -4422,50 +4804,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>5751</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>327</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="J42" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="K42" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="L42" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4479,50 +4865,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>5751</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>334</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="J43" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="K43" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="L43" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4536,50 +4926,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>5751</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>339</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>297</v>
+        <v>340</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="J44" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="K44" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="L44" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4593,50 +4987,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>5751</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>345</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="J45" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="K45" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="L45" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4650,50 +5048,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>5751</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>350</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="J46" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="K46" t="s">
-        <v>309</v>
+        <v>354</v>
       </c>
       <c r="L46" t="s">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -4707,50 +5109,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>310</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>5751</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>356</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="J47" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="K47" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="L47" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="O47" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -4764,50 +5170,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>5751</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>362</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>317</v>
+        <v>364</v>
       </c>
       <c r="J48" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="K48" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="L48" t="s">
-        <v>320</v>
+        <v>367</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="O48" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -4825,50 +5235,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>320</v>
+        <v>367</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>5751</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>368</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>321</v>
+        <v>369</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>322</v>
+        <v>370</v>
       </c>
       <c r="J49" t="s">
-        <v>323</v>
+        <v>371</v>
       </c>
       <c r="K49" t="s">
-        <v>324</v>
+        <v>372</v>
       </c>
       <c r="L49" t="s">
-        <v>325</v>
+        <v>373</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -4886,41 +5300,45 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>326</v>
+        <v>374</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>5751</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>375</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>327</v>
+        <v>376</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>328</v>
+        <v>377</v>
       </c>
       <c r="J50" t="s">
-        <v>329</v>
+        <v>378</v>
       </c>
       <c r="K50" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="L50" t="s">
-        <v>331</v>
+        <v>380</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
@@ -4939,50 +5357,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>331</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>5751</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>381</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>332</v>
+        <v>382</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>333</v>
+        <v>383</v>
       </c>
       <c r="J51" t="s">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="K51" t="s">
-        <v>335</v>
+        <v>385</v>
       </c>
       <c r="L51" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -4996,50 +5418,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>5751</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>387</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>337</v>
+        <v>388</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>338</v>
+        <v>389</v>
       </c>
       <c r="J52" t="s">
-        <v>339</v>
+        <v>390</v>
       </c>
       <c r="K52" t="s">
-        <v>340</v>
+        <v>391</v>
       </c>
       <c r="L52" t="s">
-        <v>341</v>
+        <v>392</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -5053,50 +5479,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>341</v>
+        <v>392</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>5751</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>393</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>343</v>
+        <v>395</v>
       </c>
       <c r="J53" t="s">
-        <v>344</v>
+        <v>396</v>
       </c>
       <c r="K53" t="s">
-        <v>345</v>
+        <v>397</v>
       </c>
       <c r="L53" t="s">
-        <v>346</v>
+        <v>398</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>347</v>
+        <v>399</v>
       </c>
       <c r="O53" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5114,50 +5544,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>348</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>5751</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>401</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>349</v>
+        <v>402</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>350</v>
+        <v>403</v>
       </c>
       <c r="J54" t="s">
-        <v>344</v>
+        <v>396</v>
       </c>
       <c r="K54" t="s">
-        <v>351</v>
+        <v>404</v>
       </c>
       <c r="L54" t="s">
-        <v>352</v>
+        <v>405</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="O54" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5171,50 +5605,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>352</v>
+        <v>405</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>5751</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>406</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>354</v>
+        <v>408</v>
       </c>
       <c r="J55" t="s">
-        <v>355</v>
+        <v>409</v>
       </c>
       <c r="K55" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L55" t="s">
-        <v>356</v>
+        <v>410</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="O55" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="n">
@@ -5232,50 +5670,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>356</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>5751</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>411</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>357</v>
+        <v>412</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>358</v>
+        <v>413</v>
       </c>
       <c r="J56" t="s">
-        <v>359</v>
+        <v>414</v>
       </c>
       <c r="K56" t="s">
-        <v>360</v>
+        <v>415</v>
       </c>
       <c r="L56" t="s">
-        <v>361</v>
+        <v>416</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -5293,56 +5735,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>362</v>
+        <v>417</v>
       </c>
       <c r="X56" t="s">
-        <v>363</v>
+        <v>418</v>
       </c>
       <c r="Y56" t="s">
-        <v>364</v>
+        <v>419</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>5751</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>420</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>365</v>
+        <v>421</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>366</v>
+        <v>422</v>
       </c>
       <c r="J57" t="s">
-        <v>359</v>
+        <v>414</v>
       </c>
       <c r="K57" t="s">
-        <v>367</v>
+        <v>423</v>
       </c>
       <c r="L57" t="s">
-        <v>368</v>
+        <v>424</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -5354,56 +5800,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>362</v>
+        <v>417</v>
       </c>
       <c r="X57" t="s">
-        <v>363</v>
+        <v>418</v>
       </c>
       <c r="Y57" t="s">
-        <v>369</v>
+        <v>425</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>5751</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>426</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>370</v>
+        <v>427</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>371</v>
+        <v>428</v>
       </c>
       <c r="J58" t="s">
-        <v>372</v>
+        <v>429</v>
       </c>
       <c r="K58" t="s">
-        <v>373</v>
+        <v>430</v>
       </c>
       <c r="L58" t="s">
-        <v>374</v>
+        <v>431</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="n">
@@ -5421,50 +5871,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>375</v>
+        <v>432</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>5751</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>433</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>376</v>
+        <v>434</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>377</v>
+        <v>435</v>
       </c>
       <c r="J59" t="s">
-        <v>378</v>
+        <v>436</v>
       </c>
       <c r="K59" t="s">
-        <v>379</v>
+        <v>437</v>
       </c>
       <c r="L59" t="s">
-        <v>380</v>
+        <v>438</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="O59" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -5476,56 +5930,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>381</v>
+        <v>439</v>
       </c>
       <c r="X59" t="s">
-        <v>382</v>
+        <v>440</v>
       </c>
       <c r="Y59" t="s">
-        <v>383</v>
+        <v>441</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>5751</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>442</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>384</v>
+        <v>443</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>385</v>
+        <v>444</v>
       </c>
       <c r="J60" t="s">
-        <v>386</v>
+        <v>445</v>
       </c>
       <c r="K60" t="s">
-        <v>387</v>
+        <v>446</v>
       </c>
       <c r="L60" t="s">
-        <v>388</v>
+        <v>447</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="n">
@@ -5545,50 +6003,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>389</v>
+        <v>448</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>5751</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>449</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>390</v>
+        <v>450</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>391</v>
+        <v>451</v>
       </c>
       <c r="J61" t="s">
-        <v>392</v>
+        <v>452</v>
       </c>
       <c r="K61" t="s">
-        <v>393</v>
+        <v>453</v>
       </c>
       <c r="L61" t="s">
-        <v>394</v>
+        <v>454</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="O61" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="n">
@@ -5606,50 +6068,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>394</v>
+        <v>454</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>5751</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>455</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>395</v>
+        <v>456</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>396</v>
+        <v>457</v>
       </c>
       <c r="J62" t="s">
-        <v>397</v>
+        <v>458</v>
       </c>
       <c r="K62" t="s">
-        <v>398</v>
+        <v>459</v>
       </c>
       <c r="L62" t="s">
-        <v>399</v>
+        <v>460</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="n">
@@ -5667,50 +6133,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>400</v>
+        <v>461</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>5751</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>462</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>401</v>
+        <v>463</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>402</v>
+        <v>464</v>
       </c>
       <c r="J63" t="s">
-        <v>397</v>
+        <v>458</v>
       </c>
       <c r="K63" t="s">
-        <v>403</v>
+        <v>465</v>
       </c>
       <c r="L63" t="s">
-        <v>404</v>
+        <v>466</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -5724,50 +6194,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>404</v>
+        <v>466</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>5751</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>467</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>405</v>
+        <v>468</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>406</v>
+        <v>469</v>
       </c>
       <c r="J64" t="s">
-        <v>397</v>
+        <v>458</v>
       </c>
       <c r="K64" t="s">
-        <v>407</v>
+        <v>470</v>
       </c>
       <c r="L64" t="s">
-        <v>408</v>
+        <v>471</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -5781,50 +6255,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>408</v>
+        <v>471</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>5751</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>472</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>409</v>
+        <v>473</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>410</v>
+        <v>474</v>
       </c>
       <c r="J65" t="s">
-        <v>411</v>
+        <v>475</v>
       </c>
       <c r="K65" t="s">
-        <v>412</v>
+        <v>476</v>
       </c>
       <c r="L65" t="s">
-        <v>413</v>
+        <v>477</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -5836,56 +6314,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>414</v>
+        <v>478</v>
       </c>
       <c r="X65" t="s">
-        <v>415</v>
+        <v>479</v>
       </c>
       <c r="Y65" t="s">
-        <v>416</v>
+        <v>480</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>5751</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>481</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>417</v>
+        <v>482</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>418</v>
+        <v>483</v>
       </c>
       <c r="J66" t="s">
-        <v>419</v>
+        <v>484</v>
       </c>
       <c r="K66" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="L66" t="s">
-        <v>420</v>
+        <v>485</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>421</v>
+        <v>486</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -5897,56 +6379,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>422</v>
+        <v>487</v>
       </c>
       <c r="X66" t="s">
-        <v>423</v>
+        <v>488</v>
       </c>
       <c r="Y66" t="s">
-        <v>424</v>
+        <v>489</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>5751</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>490</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>425</v>
+        <v>491</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>426</v>
+        <v>492</v>
       </c>
       <c r="J67" t="s">
-        <v>427</v>
+        <v>493</v>
       </c>
       <c r="K67" t="s">
-        <v>428</v>
+        <v>494</v>
       </c>
       <c r="L67" t="s">
-        <v>429</v>
+        <v>495</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -5958,56 +6444,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>430</v>
+        <v>496</v>
       </c>
       <c r="X67" t="s">
-        <v>431</v>
+        <v>497</v>
       </c>
       <c r="Y67" t="s">
-        <v>432</v>
+        <v>498</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>5751</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>499</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>433</v>
+        <v>500</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>434</v>
+        <v>501</v>
       </c>
       <c r="J68" t="s">
-        <v>435</v>
+        <v>502</v>
       </c>
       <c r="K68" t="s">
-        <v>436</v>
+        <v>503</v>
       </c>
       <c r="L68" t="s">
-        <v>437</v>
+        <v>504</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>421</v>
+        <v>486</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -6019,56 +6509,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>438</v>
+        <v>505</v>
       </c>
       <c r="X68" t="s">
-        <v>439</v>
+        <v>506</v>
       </c>
       <c r="Y68" t="s">
-        <v>440</v>
+        <v>507</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>5751</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>508</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>441</v>
+        <v>509</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>442</v>
+        <v>510</v>
       </c>
       <c r="J69" t="s">
-        <v>443</v>
+        <v>511</v>
       </c>
       <c r="K69" t="s">
-        <v>444</v>
+        <v>512</v>
       </c>
       <c r="L69" t="s">
-        <v>445</v>
+        <v>513</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="O69" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -6082,50 +6576,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>446</v>
+        <v>514</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>5751</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>515</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>447</v>
+        <v>516</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>448</v>
+        <v>517</v>
       </c>
       <c r="J70" t="s">
-        <v>443</v>
+        <v>511</v>
       </c>
       <c r="K70" t="s">
-        <v>449</v>
+        <v>518</v>
       </c>
       <c r="L70" t="s">
-        <v>450</v>
+        <v>519</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>421</v>
+        <v>486</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
@@ -6137,56 +6635,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>438</v>
+        <v>505</v>
       </c>
       <c r="X70" t="s">
-        <v>439</v>
+        <v>506</v>
       </c>
       <c r="Y70" t="s">
-        <v>451</v>
+        <v>520</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>5751</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>521</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>452</v>
+        <v>522</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>453</v>
+        <v>523</v>
       </c>
       <c r="J71" t="s">
-        <v>454</v>
+        <v>524</v>
       </c>
       <c r="K71" t="s">
-        <v>455</v>
+        <v>525</v>
       </c>
       <c r="L71" t="s">
-        <v>456</v>
+        <v>526</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>457</v>
+        <v>527</v>
       </c>
       <c r="O71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -6200,50 +6702,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>458</v>
+        <v>528</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>5751</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>529</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>459</v>
+        <v>530</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>460</v>
+        <v>531</v>
       </c>
       <c r="J72" t="s">
-        <v>461</v>
+        <v>532</v>
       </c>
       <c r="K72" t="s">
-        <v>462</v>
+        <v>533</v>
       </c>
       <c r="L72" t="s">
-        <v>463</v>
+        <v>534</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>421</v>
+        <v>486</v>
       </c>
       <c r="O72" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -6261,50 +6767,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>464</v>
+        <v>535</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>5751</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>536</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>465</v>
+        <v>537</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>466</v>
+        <v>538</v>
       </c>
       <c r="J73" t="s">
-        <v>467</v>
+        <v>539</v>
       </c>
       <c r="K73" t="s">
-        <v>468</v>
+        <v>540</v>
       </c>
       <c r="L73" t="s">
-        <v>469</v>
+        <v>541</v>
       </c>
       <c r="M73" t="n">
         <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="O73" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -6318,41 +6828,45 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>470</v>
+        <v>542</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>5751</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>543</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>471</v>
+        <v>544</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>472</v>
+        <v>545</v>
       </c>
       <c r="J74" t="s">
-        <v>473</v>
+        <v>546</v>
       </c>
       <c r="K74" t="s">
-        <v>474</v>
+        <v>547</v>
       </c>
       <c r="L74" t="s">
-        <v>475</v>
+        <v>548</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
@@ -6369,56 +6883,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>476</v>
+        <v>549</v>
       </c>
       <c r="X74" t="s">
-        <v>477</v>
+        <v>550</v>
       </c>
       <c r="Y74" t="s">
-        <v>478</v>
+        <v>551</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>5751</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>552</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>479</v>
+        <v>553</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>480</v>
+        <v>554</v>
       </c>
       <c r="J75" t="s">
-        <v>481</v>
+        <v>555</v>
       </c>
       <c r="K75" t="s">
-        <v>482</v>
+        <v>556</v>
       </c>
       <c r="L75" t="s">
-        <v>483</v>
+        <v>557</v>
       </c>
       <c r="M75" t="n">
         <v>2</v>
       </c>
       <c r="N75" t="s">
-        <v>421</v>
+        <v>486</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="s"/>
@@ -6430,13 +6948,13 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>484</v>
+        <v>558</v>
       </c>
       <c r="X75" t="s">
-        <v>485</v>
+        <v>559</v>
       </c>
       <c r="Y75" t="s">
-        <v>486</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
